--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7EA8B3-03A0-408F-8545-8E3CD4D735B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C05FB40-2577-4DA6-AC77-C9E86C1C9C37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Masa</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -536,19 +539,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,18 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,15 +630,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,19 +639,10 @@
     <xf numFmtId="11" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,6 +668,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,171 +997,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="C1" colorId="23" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="14"/>
-    <col min="8" max="8" width="10.33203125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="29" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="46"/>
-    <col min="14" max="14" width="11.33203125" style="47" customWidth="1"/>
-    <col min="15" max="15" width="3.88671875" customWidth="1"/>
-    <col min="16" max="16" width="2.33203125" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" customWidth="1"/>
+    <col min="1" max="1" width="18" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="12"/>
+    <col min="8" max="8" width="10.28515625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="34"/>
+    <col min="14" max="15" width="11.28515625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="2.28515625" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
     </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="O2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="43" t="str" cm="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT(ADDRESS(I3+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="35">
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="26">
         <v>100000000</v>
       </c>
-      <c r="M3" s="44" cm="1">
+      <c r="M3" s="32" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>2.1492612071124455</v>
       </c>
-      <c r="N3" s="45" cm="1">
+      <c r="N3" s="33" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>2.1515151515151509</v>
       </c>
-      <c r="S3" s="26">
+      <c r="O3" s="33"/>
+      <c r="S3" s="20">
         <v>1</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="21">
         <v>503000000</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="21">
         <v>572000000</v>
       </c>
       <c r="X3" s="1">
@@ -1160,57 +1184,59 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="43" t="str" cm="1">
+      <c r="H4" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT(ADDRESS(I4+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>1</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="26">
         <v>200000000</v>
       </c>
-      <c r="M4" s="44" cm="1">
+      <c r="M4" s="32" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>0.57463060355622275</v>
       </c>
-      <c r="N4" s="45" cm="1">
+      <c r="N4" s="33" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>0.57575757575757547</v>
       </c>
-      <c r="S4" s="26">
+      <c r="O4" s="33"/>
+      <c r="S4" s="20">
         <v>2</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="43" t="str" cm="1">
+      <c r="H5" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT(ADDRESS(I5+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>1</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="26">
         <v>300000000</v>
       </c>
-      <c r="M5" s="44" cm="1">
+      <c r="M5" s="32" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>4.9753735704148649E-2</v>
       </c>
-      <c r="N5" s="45" cm="1">
+      <c r="N5" s="33" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>5.0505050505050164E-2</v>
       </c>
+      <c r="O5" s="33"/>
       <c r="X5" cm="1">
         <f t="array" aca="1" ref="X5" ca="1">INDIRECT(ADDRESS(3,24))</f>
         <v>1.1000000000000001</v>
@@ -1232,44 +1258,47 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="H6" s="43" t="str" cm="1">
+      <c r="H6" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT(ADDRESS(I6+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>1</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="26">
         <v>400000000</v>
       </c>
-      <c r="M6" s="44" cm="1">
+      <c r="M6" s="32" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>-0.21268469822188862</v>
       </c>
-      <c r="N6" s="45" cm="1">
+      <c r="N6" s="33" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>-0.21212121212121227</v>
       </c>
+      <c r="O6" s="33"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1277,8 +1306,8 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:N1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C05FB40-2577-4DA6-AC77-C9E86C1C9C37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA9783F-1DFE-490F-B693-B75F11B7818C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19590" yWindow="-120" windowWidth="19710" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Masa</t>
+  </si>
+  <si>
+    <t>Bandeja</t>
   </si>
 </sst>
 </file>
@@ -709,6 +712,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFC7A1D3"/>
       <color rgb="FF83E4E9"/>
@@ -740,7 +809,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C8C8C8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -997,34 +1066,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="C1" colorId="23" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="12"/>
-    <col min="8" max="8" width="10.28515625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="23" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="23" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="34"/>
-    <col min="14" max="15" width="11.28515625" style="35" customWidth="1"/>
-    <col min="16" max="16" width="2.28515625" customWidth="1"/>
-    <col min="17" max="17" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="12"/>
+    <col min="8" max="8" width="10.33203125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="34"/>
+    <col min="14" max="15" width="11.33203125" style="35" customWidth="1"/>
+    <col min="16" max="16" width="2.33203125" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1106,7 @@
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="44" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G1" s="45"/>
       <c r="H1" s="42" t="s">
@@ -1053,7 +1122,7 @@
       <c r="N1" s="47"/>
       <c r="O1" s="47"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
       <c r="B2" s="14" t="s">
         <v>2</v>
@@ -1125,7 +1194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1134,26 +1203,21 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
       <c r="H3" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT(ADDRESS(I3+2,20))</f>
-        <v>AL 7075 T6</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
+        <v>Material</v>
+      </c>
+      <c r="I3" s="7"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="26">
-        <v>100000000</v>
-      </c>
-      <c r="M3" s="32" cm="1">
+      <c r="L3" s="26"/>
+      <c r="M3" s="32" t="e" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>2.1492612071124455</v>
-      </c>
-      <c r="N3" s="33" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N3" s="33" t="e" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>2.1515151515151509</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O3" s="33"/>
       <c r="S3" s="20">
@@ -1184,27 +1248,22 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="H4" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT(ADDRESS(I4+2,20))</f>
-        <v>AL 7075 T6</v>
-      </c>
-      <c r="I4" s="13">
-        <v>1</v>
-      </c>
-      <c r="L4" s="26">
-        <v>200000000</v>
-      </c>
-      <c r="M4" s="32" cm="1">
+        <v>Material</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="32" t="e" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>0.57463060355622275</v>
-      </c>
-      <c r="N4" s="33" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N4" s="33" t="e" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>0.57575757575757547</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O4" s="33"/>
       <c r="S4" s="20">
@@ -1214,27 +1273,22 @@
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="H5" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT(ADDRESS(I5+2,20))</f>
-        <v>AL 7075 T6</v>
-      </c>
-      <c r="I5" s="13">
-        <v>1</v>
-      </c>
-      <c r="L5" s="26">
-        <v>300000000</v>
-      </c>
-      <c r="M5" s="32" cm="1">
+        <v>Material</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="32" t="e" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>4.9753735704148649E-2</v>
-      </c>
-      <c r="N5" s="33" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" s="33" t="e" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>5.0505050505050164E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O5" s="33"/>
       <c r="X5" cm="1">
@@ -1258,31 +1312,27 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT(ADDRESS(I6+2,20))</f>
-        <v>AL 7075 T6</v>
-      </c>
-      <c r="I6" s="13">
-        <v>1</v>
-      </c>
-      <c r="L6" s="26">
-        <v>400000000</v>
-      </c>
-      <c r="M6" s="32" cm="1">
+        <v>Material</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="32" t="e" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>-0.21268469822188862</v>
-      </c>
-      <c r="N6" s="33" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" s="33" t="e" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>-0.21212121212121227</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O6" s="33"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1291,7 +1341,7 @@
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1302,12 +1352,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:O1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA9783F-1DFE-490F-B693-B75F11B7818C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D05737-81BD-488E-81A0-1BB31DADAF63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19590" yWindow="-120" windowWidth="19710" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -82,12 +82,6 @@
     <t>ANALISIS</t>
   </si>
   <si>
-    <t>1ª Frecuencia longitudinal</t>
-  </si>
-  <si>
-    <t>1ª Frecuencia lateral</t>
-  </si>
-  <si>
     <t>Geometría</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>sigmau [Pa]</t>
   </si>
   <si>
-    <t>sigmaVM [Pa]</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -134,6 +125,99 @@
   </si>
   <si>
     <t>Bandeja</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>OMEGA1</t>
+  </si>
+  <si>
+    <t>OMEGA2</t>
+  </si>
+  <si>
+    <t>OMEGA3</t>
+  </si>
+  <si>
+    <t>OMEGA4</t>
+  </si>
+  <si>
+    <t>CFRP</t>
+  </si>
+  <si>
+    <t>.015    .002    .045    .048</t>
+  </si>
+  <si>
+    <t>.015    .002    .021    .024</t>
+  </si>
+  <si>
+    <t>.030    .002    .021    .024</t>
+  </si>
+  <si>
+    <t>.015    .004    .018    .024</t>
+  </si>
+  <si>
+    <t>.026    .001    .015    .008</t>
+  </si>
+  <si>
+    <t>.052    .001    .015    .008</t>
+  </si>
+  <si>
+    <t>.026    .001    .030    .016</t>
+  </si>
+  <si>
+    <t>.026    .003    .015    .008</t>
+  </si>
+  <si>
+    <t>.01     .01</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>26x10</t>
+  </si>
+  <si>
+    <t>10x26</t>
+  </si>
+  <si>
+    <t>.01     .026</t>
+  </si>
+  <si>
+    <t>.026    .01</t>
+  </si>
+  <si>
+    <t>Al_3</t>
+  </si>
+  <si>
+    <t>Al_4</t>
+  </si>
+  <si>
+    <t>Al_1</t>
+  </si>
+  <si>
+    <t>VM_X [Pa]</t>
+  </si>
+  <si>
+    <t>VM_Y [Pa]</t>
+  </si>
+  <si>
+    <t>VM_Z [Pa]</t>
+  </si>
+  <si>
+    <t>Longitudinal Z [Hz]</t>
+  </si>
+  <si>
+    <t>Lateral XY [Hz]</t>
   </si>
 </sst>
 </file>
@@ -243,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -463,19 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -543,11 +614,83 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -555,8 +698,38 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -566,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,9 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,9 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,16 +803,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,16 +818,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,9 +830,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,16 +845,167 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="C1" colorId="23" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,160 +1379,197 @@
     <col min="2" max="2" width="14.88671875" style="9" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="12" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="12"/>
-    <col min="8" max="8" width="10.33203125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="30" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="23" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="34"/>
-    <col min="14" max="15" width="11.33203125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="2.33203125" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="88" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="88" customWidth="1"/>
+    <col min="12" max="14" width="12.6640625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="28"/>
+    <col min="16" max="17" width="11.33203125" style="29" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="42" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="46" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="30" t="s">
+      <c r="P2" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="24" t="s">
+      <c r="E3" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="43" t="str" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">INDIRECT(ADDRESS(I3+2,20))</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>1</v>
+      </c>
+      <c r="J3" s="87">
+        <v>118.47709999999999</v>
+      </c>
+      <c r="K3" s="87">
+        <v>615.22640000000001</v>
+      </c>
+      <c r="L3" s="46">
+        <v>7920000</v>
+      </c>
+      <c r="M3" s="46">
+        <v>8300000</v>
+      </c>
+      <c r="N3" s="72">
+        <v>49700000</v>
+      </c>
+      <c r="O3" s="73" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>5.3365416642101522</v>
+      </c>
+      <c r="P3" s="73" cm="1">
+        <f t="array" aca="1" ref="P3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>5.3410767636119738</v>
+      </c>
+      <c r="Q3" s="76">
+        <v>16.691759999999999</v>
+      </c>
+      <c r="S3" s="18">
+        <v>1</v>
+      </c>
+      <c r="T3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="H3" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="H3" ca="1">INDIRECT(ADDRESS(I3+2,20))</f>
-        <v>Material</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="32" t="e" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N3" s="33" t="e" cm="1">
-        <f t="array" aca="1" ref="N3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(L3*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O3" s="33"/>
-      <c r="S3" s="20">
-        <v>1</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="21">
+      <c r="U3" s="19">
         <v>503000000</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="19">
         <v>572000000</v>
       </c>
       <c r="X3" s="1">
@@ -1250,47 +1590,101 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="H4" s="31" t="str" cm="1">
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="27" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT(ADDRESS(I4+2,20))</f>
-        <v>Material</v>
-      </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="32" t="e" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N4" s="33" t="e" cm="1">
-        <f t="array" aca="1" ref="N4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(L4*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O4" s="33"/>
-      <c r="S4" s="20">
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="P4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="76"/>
+      <c r="S4" s="18">
         <v>2</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="T4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="19">
+        <v>150000000</v>
+      </c>
+      <c r="V4" s="19">
+        <v>160000000</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
+        <f t="shared" ref="A5:A14" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="H5" s="31" t="str" cm="1">
+      <c r="B5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="27" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT(ADDRESS(I5+2,20))</f>
-        <v>Material</v>
-      </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="32" t="e" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N5" s="33" t="e" cm="1">
-        <f t="array" aca="1" ref="N5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(L5*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O5" s="33"/>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="P5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="76"/>
       <c r="X5" cm="1">
         <f t="array" aca="1" ref="X5" ca="1">INDIRECT(ADDRESS(3,24))</f>
         <v>1.1000000000000001</v>
@@ -1312,52 +1706,577 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="47">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="31" t="str" cm="1">
+      <c r="B6" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="52" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT(ADDRESS(I6+2,20))</f>
-        <v>Material</v>
-      </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="32" t="e" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" s="33" t="e" cm="1">
-        <f t="array" aca="1" ref="N6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(L6*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" s="33"/>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I6" s="53">
+        <v>1</v>
+      </c>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75" t="e" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="75" t="e" cm="1">
+        <f t="array" aca="1" ref="P6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="77"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="39">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="B7" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="27" t="str" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">INDIRECT(ADDRESS(I7+2,20))</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="67" t="e" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">INDIRECT(ADDRESS(I7+2,21))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="67" t="e" cm="1">
+        <f t="array" aca="1" ref="P7" ca="1">INDIRECT(ADDRESS(I7+2,22))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="78"/>
+      <c r="S7" s="68"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
+      <c r="B8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="30" t="str" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">INDIRECT(ADDRESS(I8+2,20))</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">INDIRECT(ADDRESS(I8+2,21))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="P8" ca="1">INDIRECT(ADDRESS(I8+2,22))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="79"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="30" t="str" cm="1">
+        <f t="array" aca="1" ref="H9" ca="1">INDIRECT(ADDRESS(I9+2,20))</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="O9" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">INDIRECT(ADDRESS(I9+2,21))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="P9" ca="1">INDIRECT(ADDRESS(I9+2,22))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="80"/>
+    </row>
+    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="56" t="str" cm="1">
+        <f t="array" aca="1" ref="H10" ca="1">INDIRECT(ADDRESS(I10+2,20))</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I10" s="53">
+        <v>1</v>
+      </c>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="75" t="e" cm="1">
+        <f t="array" aca="1" ref="O10" ca="1">INDIRECT(ADDRESS(I10+2,21))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="75" t="e" cm="1">
+        <f t="array" aca="1" ref="P10" ca="1">INDIRECT(ADDRESS(I10+2,22))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="81"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="42">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="43" t="str" cm="1">
+        <f t="array" aca="1" ref="H11" ca="1">INDIRECT(ADDRESS(I11+2,20))</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I11" s="44">
+        <v>1</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="67" t="e" cm="1">
+        <f t="array" aca="1" ref="O11" ca="1">INDIRECT(ADDRESS(I11+2,21))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="67" t="e" cm="1">
+        <f t="array" aca="1" ref="P11" ca="1">INDIRECT(ADDRESS(I11+2,22))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="82"/>
+    </row>
+    <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="51">
+        <v>1E-3</v>
+      </c>
+      <c r="H12" s="56" t="str" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">INDIRECT(ADDRESS(I12+2,20))</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I12" s="53">
+        <v>1</v>
+      </c>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="75" t="e" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">INDIRECT(ADDRESS(I12+2,21))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="75" t="e" cm="1">
+        <f t="array" aca="1" ref="P12" ca="1">INDIRECT(ADDRESS(I12+2,22))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="81"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="42">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H13" s="43" t="str" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">INDIRECT(ADDRESS(I13+2,20))</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I13" s="44">
+        <v>1</v>
+      </c>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="67" t="e" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">INDIRECT(ADDRESS(I13+2,21))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" s="67" t="e" cm="1">
+        <f t="array" aca="1" ref="P13" ca="1">INDIRECT(ADDRESS(I13+2,22))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="82"/>
+    </row>
+    <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="47">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H14" s="56" t="str" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">INDIRECT(ADDRESS(I14+2,20))</f>
+        <v>AL 7075 T6</v>
+      </c>
+      <c r="I14" s="64">
+        <v>1</v>
+      </c>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="75" t="e" cm="1">
+        <f t="array" aca="1" ref="O14" ca="1">INDIRECT(ADDRESS(I14+2,21))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" s="75" t="e" cm="1">
+        <f t="array" aca="1" ref="P14" ca="1">INDIRECT(ADDRESS(I14+2,22))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="83"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="27" t="str" cm="1">
+        <f t="array" aca="1" ref="H15" ca="1">INDIRECT(ADDRESS(I15+2,20))</f>
+        <v>Material</v>
+      </c>
+      <c r="I15" s="63"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="71" t="e" cm="1">
+        <f t="array" aca="1" ref="O15" ca="1">INDIRECT(ADDRESS(I15+2,21))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P15" s="71" t="e" cm="1">
+        <f t="array" aca="1" ref="P15" ca="1">INDIRECT(ADDRESS(I15+2,22))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q15" s="84"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="H16" s="30" t="str" cm="1">
+        <f t="array" aca="1" ref="H16" ca="1">INDIRECT(ADDRESS(I16+2,20))</f>
+        <v>Material</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="O16" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="O16" ca="1">INDIRECT(ADDRESS(I16+2,21))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P16" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="P16" ca="1">INDIRECT(ADDRESS(I16+2,22))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q16" s="85"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="H17" s="30" t="str" cm="1">
+        <f t="array" aca="1" ref="H17" ca="1">INDIRECT(ADDRESS(I17+2,20))</f>
+        <v>Material</v>
+      </c>
+      <c r="I17" s="60"/>
+      <c r="O17" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="O17" ca="1">INDIRECT(ADDRESS(I17+2,21))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P17" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="P17" ca="1">INDIRECT(ADDRESS(I17+2,22))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q17" s="85"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="H18" s="30" t="str" cm="1">
+        <f t="array" aca="1" ref="H18" ca="1">INDIRECT(ADDRESS(I18+2,20))</f>
+        <v>Material</v>
+      </c>
+      <c r="I18" s="60"/>
+      <c r="O18" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="O18" ca="1">INDIRECT(ADDRESS(I18+2,21))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P18" s="73" t="e" cm="1">
+        <f t="array" aca="1" ref="P18" ca="1">INDIRECT(ADDRESS(I18+2,22))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q18" s="85"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="I19" s="30"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+      <c r="I20" s="30"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="I21" s="30"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J1:O1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D05737-81BD-488E-81A0-1BB31DADAF63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6324BF45-6FF5-414E-854B-2F454C96290B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2724" yWindow="924" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Masa</t>
-  </si>
-  <si>
     <t>Bandeja</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>Lateral XY [Hz]</t>
+  </si>
+  <si>
+    <t>Masa[kg]</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,30 +827,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,9 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,12 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -960,36 +927,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1007,6 +944,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="C1" colorId="23" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="H1" colorId="23" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,11 +1381,12 @@
     <col min="7" max="7" width="8.88671875" style="12"/>
     <col min="8" max="8" width="13.88671875" style="30" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="88" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="88" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="67" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="67" customWidth="1"/>
     <col min="12" max="14" width="12.6640625" style="21" customWidth="1"/>
     <col min="15" max="15" width="9.109375" style="28"/>
-    <col min="16" max="17" width="11.33203125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="29" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="90" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
     <col min="19" max="19" width="9.6640625" customWidth="1"/>
     <col min="20" max="20" width="15.109375" customWidth="1"/>
@@ -1397,39 +1395,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="35" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="79"/>
+      <c r="H1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="65" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="53" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1441,7 +1439,7 @@
       <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="24" t="s">
@@ -1453,29 +1451,29 @@
       <c r="I2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="L2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="82" t="s">
         <v>53</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="70" t="s">
-        <v>21</v>
       </c>
       <c r="S2" s="16" t="s">
         <v>20</v>
@@ -1506,58 +1504,58 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="39">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>33</v>
+      <c r="C3" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="43" t="str" cm="1">
+      <c r="H3" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT(ADDRESS(I3+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="36">
         <v>1</v>
       </c>
-      <c r="J3" s="87">
+      <c r="J3" s="66">
         <v>118.47709999999999</v>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="66">
         <v>615.22640000000001</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="38">
         <v>7920000</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="38">
         <v>8300000</v>
       </c>
-      <c r="N3" s="72">
+      <c r="N3" s="61">
         <v>49700000</v>
       </c>
-      <c r="O3" s="73" cm="1">
+      <c r="O3" s="62" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>5.3365416642101522</v>
       </c>
-      <c r="P3" s="73" cm="1">
+      <c r="P3" s="62" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>5.3410767636119738</v>
       </c>
-      <c r="Q3" s="76">
+      <c r="Q3" s="83">
         <v>16.691759999999999</v>
       </c>
       <c r="S3" s="18">
@@ -1594,19 +1592,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="12">
         <v>3.0000000000000001E-3</v>
@@ -1618,23 +1616,37 @@
       <c r="I4" s="13">
         <v>1</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73" t="e" cm="1">
+      <c r="J4" s="67">
+        <v>249.5684</v>
+      </c>
+      <c r="K4" s="67">
+        <v>1045.6030000000001</v>
+      </c>
+      <c r="L4" s="23">
+        <v>6930000</v>
+      </c>
+      <c r="M4" s="23">
+        <v>7030000</v>
+      </c>
+      <c r="N4" s="61">
+        <v>49700000</v>
+      </c>
+      <c r="O4" s="62" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="73" t="e" cm="1">
+        <v>5.3365416642101522</v>
+      </c>
+      <c r="P4" s="62" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q4" s="76"/>
+        <v>5.3410767636119738</v>
+      </c>
+      <c r="Q4" s="83">
+        <v>18.247150000000001</v>
+      </c>
       <c r="S4" s="18">
         <v>2</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" s="19">
         <v>150000000</v>
@@ -1649,19 +1661,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="12">
         <v>3.0000000000000001E-3</v>
@@ -1673,18 +1685,32 @@
       <c r="I5" s="13">
         <v>1</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="73" t="e" cm="1">
+      <c r="J5" s="61">
+        <v>139.73820000000001</v>
+      </c>
+      <c r="K5" s="61">
+        <v>654.02819999999997</v>
+      </c>
+      <c r="L5" s="23">
+        <v>6430000</v>
+      </c>
+      <c r="M5" s="23">
+        <v>6350000</v>
+      </c>
+      <c r="N5" s="61">
+        <v>38700000</v>
+      </c>
+      <c r="O5" s="62" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="73" t="e" cm="1">
+        <v>7.1376258581716954</v>
+      </c>
+      <c r="P5" s="62" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="76"/>
+        <v>7.1434500039151185</v>
+      </c>
+      <c r="Q5" s="83">
+        <v>18.149940000000001</v>
+      </c>
       <c r="X5" cm="1">
         <f t="array" aca="1" ref="X5" ca="1">INDIRECT(ADDRESS(3,24))</f>
         <v>1.1000000000000001</v>
@@ -1707,69 +1733,69 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="A6" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="51">
+      <c r="C6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="43">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="52" t="str" cm="1">
+      <c r="H6" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT(ADDRESS(I6+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="45">
         <v>1</v>
       </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="75" t="e" cm="1">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64" t="e" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P6" s="75" t="e" cm="1">
+      <c r="P6" s="64" t="e" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q6" s="77"/>
+      <c r="Q6" s="84"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+      <c r="A7" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="32" t="s">
         <v>40</v>
       </c>
+      <c r="C7" s="32" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="6">
         <v>3.0000000000000001E-3</v>
@@ -1781,21 +1807,21 @@
       <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="67" t="e" cm="1">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDIRECT(ADDRESS(I7+2,21))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P7" s="67" t="e" cm="1">
+      <c r="P7" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT(ADDRESS(I7+2,22))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="S7" s="68"/>
+      <c r="Q7" s="85"/>
+      <c r="S7" s="57"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -1803,19 +1829,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="12">
         <v>3.0000000000000001E-3</v>
@@ -1830,15 +1856,15 @@
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="73" t="e" cm="1">
+      <c r="O8" s="62" t="e" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDIRECT(ADDRESS(I8+2,21))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="73" t="e" cm="1">
+      <c r="P8" s="62" t="e" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT(ADDRESS(I8+2,22))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="79"/>
+      <c r="Q8" s="86"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -1846,19 +1872,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="12">
         <v>3.0000000000000001E-3</v>
@@ -1870,240 +1896,240 @@
       <c r="I9" s="13">
         <v>1</v>
       </c>
-      <c r="O9" s="73" t="e" cm="1">
+      <c r="O9" s="62" t="e" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDIRECT(ADDRESS(I9+2,21))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P9" s="73" t="e" cm="1">
+      <c r="P9" s="62" t="e" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT(ADDRESS(I9+2,22))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="80"/>
+      <c r="Q9" s="87"/>
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+      <c r="A10" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="50" t="s">
+      <c r="C10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="51" t="s">
-        <v>46</v>
+      <c r="D10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="G10" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="56" t="str" cm="1">
+      <c r="H10" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDIRECT(ADDRESS(I10+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="45">
         <v>1</v>
       </c>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="75" t="e" cm="1">
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="64" t="e" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDIRECT(ADDRESS(I10+2,21))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="75" t="e" cm="1">
+      <c r="P10" s="64" t="e" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT(ADDRESS(I10+2,22))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="81"/>
+      <c r="Q10" s="88"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>36</v>
+      <c r="C11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="42">
+        <v>46</v>
+      </c>
+      <c r="G11" s="34">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="43" t="str" cm="1">
+      <c r="H11" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDIRECT(ADDRESS(I11+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="36">
         <v>1</v>
       </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="67" t="e" cm="1">
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDIRECT(ADDRESS(I11+2,21))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="67" t="e" cm="1">
+      <c r="P11" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDIRECT(ADDRESS(I11+2,22))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="82"/>
+      <c r="Q11" s="85"/>
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+      <c r="A12" s="39">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="58" t="s">
+      <c r="B12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="51">
+      <c r="C12" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="43">
         <v>1E-3</v>
       </c>
-      <c r="H12" s="56" t="str" cm="1">
+      <c r="H12" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDIRECT(ADDRESS(I12+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="45">
         <v>1</v>
       </c>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="75" t="e" cm="1">
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="64" t="e" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDIRECT(ADDRESS(I12+2,21))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="75" t="e" cm="1">
+      <c r="P12" s="64" t="e" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDIRECT(ADDRESS(I12+2,22))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="81"/>
+      <c r="Q12" s="88"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="39">
+      <c r="A13" s="31">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="42">
+      <c r="G13" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H13" s="43" t="str" cm="1">
+      <c r="H13" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDIRECT(ADDRESS(I13+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="36">
         <v>1</v>
       </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="67" t="e" cm="1">
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDIRECT(ADDRESS(I13+2,21))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="67" t="e" cm="1">
+      <c r="P13" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDIRECT(ADDRESS(I13+2,22))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="82"/>
+      <c r="Q13" s="85"/>
     </row>
     <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="A14" s="39">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="51">
+      <c r="D14" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="43">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="56" t="str" cm="1">
+      <c r="H14" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDIRECT(ADDRESS(I14+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="55">
         <v>1</v>
       </c>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="75" t="e" cm="1">
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="64" t="e" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDIRECT(ADDRESS(I14+2,21))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="75" t="e" cm="1">
+      <c r="P14" s="64" t="e" cm="1">
         <f t="array" aca="1" ref="P14" ca="1">INDIRECT(ADDRESS(I14+2,22))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="83"/>
+      <c r="Q14" s="84"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -2117,21 +2143,21 @@
         <f t="array" aca="1" ref="H15" ca="1">INDIRECT(ADDRESS(I15+2,20))</f>
         <v>Material</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
-      <c r="O15" s="71" t="e" cm="1">
+      <c r="O15" s="60" t="e" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDIRECT(ADDRESS(I15+2,21))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P15" s="71" t="e" cm="1">
+      <c r="P15" s="60" t="e" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">INDIRECT(ADDRESS(I15+2,22))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q15" s="84"/>
+      <c r="Q15" s="89"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
@@ -2140,16 +2166,16 @@
         <f t="array" aca="1" ref="H16" ca="1">INDIRECT(ADDRESS(I16+2,20))</f>
         <v>Material</v>
       </c>
-      <c r="I16" s="60"/>
-      <c r="O16" s="73" t="e" cm="1">
+      <c r="I16" s="51"/>
+      <c r="O16" s="62" t="e" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDIRECT(ADDRESS(I16+2,21))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P16" s="73" t="e" cm="1">
+      <c r="P16" s="62" t="e" cm="1">
         <f t="array" aca="1" ref="P16" ca="1">INDIRECT(ADDRESS(I16+2,22))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q16" s="85"/>
+      <c r="Q16" s="83"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
@@ -2158,16 +2184,16 @@
         <f t="array" aca="1" ref="H17" ca="1">INDIRECT(ADDRESS(I17+2,20))</f>
         <v>Material</v>
       </c>
-      <c r="I17" s="60"/>
-      <c r="O17" s="73" t="e" cm="1">
+      <c r="I17" s="51"/>
+      <c r="O17" s="62" t="e" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDIRECT(ADDRESS(I17+2,21))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P17" s="73" t="e" cm="1">
+      <c r="P17" s="62" t="e" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">INDIRECT(ADDRESS(I17+2,22))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q17" s="85"/>
+      <c r="Q17" s="83"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
@@ -2176,16 +2202,16 @@
         <f t="array" aca="1" ref="H18" ca="1">INDIRECT(ADDRESS(I18+2,20))</f>
         <v>Material</v>
       </c>
-      <c r="I18" s="60"/>
-      <c r="O18" s="73" t="e" cm="1">
+      <c r="I18" s="51"/>
+      <c r="O18" s="62" t="e" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDIRECT(ADDRESS(I18+2,21))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P18" s="73" t="e" cm="1">
+      <c r="P18" s="62" t="e" cm="1">
         <f t="array" aca="1" ref="P18" ca="1">INDIRECT(ADDRESS(I18+2,22))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q18" s="85"/>
+      <c r="Q18" s="83"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
@@ -2193,33 +2219,33 @@
       <c r="I19" s="30"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="Q19" s="67"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C20" s="9"/>
       <c r="I20" s="30"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="Q20" s="67"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="I21" s="30"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="Q21" s="67"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="Q22" s="67"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="Q23" s="67"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
@@ -2271,12 +2297,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:Q1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6324BF45-6FF5-414E-854B-2F454C96290B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D4EDCC-FCFB-460B-B002-CF5CA7D06055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2724" yWindow="924" windowWidth="16404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -394,21 +394,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -664,28 +649,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -733,39 +696,61 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,10 +763,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,222 +779,360 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA72D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1B3E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB17ED8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1B3E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA72D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1B3E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA72D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA72D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8C3FC5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF893BC3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8C3FC5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF893BC3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF893BC3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1079,15 +1202,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFB17ED8"/>
+      <color rgb="FF9E5ECE"/>
+      <color rgb="FFD1B3E7"/>
+      <color rgb="FFE8D9F3"/>
+      <color rgb="FFAA72D4"/>
+      <color rgb="FF8C3FC5"/>
+      <color rgb="FF893BC3"/>
+      <color rgb="FF873AC0"/>
       <color rgb="FFC7A1D3"/>
       <color rgb="FF83E4E9"/>
-      <color rgb="FF33CCFF"/>
-      <color rgb="FF7AE684"/>
-      <color rgb="FF00CC99"/>
-      <color rgb="FFECECA6"/>
-      <color rgb="FFFFFF00"/>
-      <color rgb="FFFF9966"/>
-      <color rgb="FFFA7A60"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1366,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="H1" colorId="23" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,14 +1503,14 @@
     <col min="5" max="5" width="21" style="11" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="12" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="12"/>
-    <col min="8" max="8" width="13.88671875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="28" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="67" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="67" customWidth="1"/>
-    <col min="12" max="14" width="12.6640625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="28"/>
-    <col min="16" max="16" width="11.33203125" style="29" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="90" customWidth="1"/>
+    <col min="10" max="10" width="16" style="60" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="60" customWidth="1"/>
+    <col min="12" max="14" width="12.6640625" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="26"/>
+    <col min="16" max="16" width="11.33203125" style="27" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="70" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
     <col min="19" max="19" width="9.6640625" customWidth="1"/>
     <col min="20" max="20" width="15.109375" customWidth="1"/>
@@ -1406,28 +1530,28 @@
         <v>5</v>
       </c>
       <c r="E1" s="75"/>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="79"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="80" t="s">
+      <c r="I1" s="80"/>
+      <c r="J1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="74"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1439,40 +1563,40 @@
       <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="85" t="s">
         <v>53</v>
       </c>
       <c r="S2" s="16" t="s">
@@ -1504,19 +1628,19 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="31">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -1525,37 +1649,37 @@
       <c r="G3" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="35" t="str" cm="1">
+      <c r="H3" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDIRECT(ADDRESS(I3+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="34">
         <v>1</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="59">
         <v>118.47709999999999</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="59">
         <v>615.22640000000001</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="35">
         <v>7920000</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="35">
         <v>8300000</v>
       </c>
-      <c r="N3" s="61">
+      <c r="N3" s="55">
         <v>49700000</v>
       </c>
-      <c r="O3" s="62" cm="1">
+      <c r="O3" s="56" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>5.3365416642101522</v>
       </c>
-      <c r="P3" s="62" cm="1">
+      <c r="P3" s="56" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>5.3410767636119738</v>
       </c>
-      <c r="Q3" s="83">
+      <c r="Q3" s="63">
         <v>16.691759999999999</v>
       </c>
       <c r="S3" s="18">
@@ -1609,37 +1733,37 @@
       <c r="G4" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="27" t="str" cm="1">
+      <c r="H4" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDIRECT(ADDRESS(I4+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
       <c r="I4" s="13">
         <v>1</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="60">
         <v>249.5684</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="60">
         <v>1045.6030000000001</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="21">
         <v>6930000</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="21">
         <v>7030000</v>
       </c>
-      <c r="N4" s="61">
+      <c r="N4" s="55">
         <v>49700000</v>
       </c>
-      <c r="O4" s="62" cm="1">
+      <c r="O4" s="79" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>5.3365416642101522</v>
       </c>
-      <c r="P4" s="62" cm="1">
+      <c r="P4" s="56" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>5.3410767636119738</v>
       </c>
-      <c r="Q4" s="83">
+      <c r="Q4" s="63">
         <v>18.247150000000001</v>
       </c>
       <c r="S4" s="18">
@@ -1678,37 +1802,37 @@
       <c r="G5" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H5" s="27" t="str" cm="1">
+      <c r="H5" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDIRECT(ADDRESS(I5+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
       <c r="I5" s="13">
         <v>1</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="60">
         <v>139.73820000000001</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="60">
         <v>654.02819999999997</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="21">
         <v>6430000</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="21">
         <v>6350000</v>
       </c>
-      <c r="N5" s="61">
+      <c r="N5" s="55">
         <v>38700000</v>
       </c>
-      <c r="O5" s="62" cm="1">
+      <c r="O5" s="56" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>7.1376258581716954</v>
       </c>
-      <c r="P5" s="62" cm="1">
+      <c r="P5" s="56" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>7.1434500039151185</v>
       </c>
-      <c r="Q5" s="83">
+      <c r="Q5" s="63">
         <v>18.149940000000001</v>
       </c>
       <c r="X5" cm="1">
@@ -1733,59 +1857,71 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39">
+      <c r="A6" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="40">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="44" t="str" cm="1">
+      <c r="H6" s="41" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDIRECT(ADDRESS(I6+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="42">
         <v>1</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64" t="e" cm="1">
+      <c r="J6" s="61">
+        <v>151.86250000000001</v>
+      </c>
+      <c r="K6" s="61">
+        <v>649.08910000000003</v>
+      </c>
+      <c r="L6" s="43">
+        <v>5690000</v>
+      </c>
+      <c r="M6" s="43">
+        <v>6350000</v>
+      </c>
+      <c r="N6" s="57">
+        <v>38700000</v>
+      </c>
+      <c r="O6" s="58" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="64" t="e" cm="1">
+        <v>7.1376258581716954</v>
+      </c>
+      <c r="P6" s="58" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="84"/>
+        <v>7.1434500039151185</v>
+      </c>
+      <c r="Q6" s="64">
+        <v>19.70532</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+      <c r="A7" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1800,28 +1936,40 @@
       <c r="G7" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="27" t="str" cm="1">
+      <c r="H7" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDIRECT(ADDRESS(I7+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="56" t="e" cm="1">
+      <c r="J7" s="62">
+        <v>119.07470000000001</v>
+      </c>
+      <c r="K7" s="62">
+        <v>636.6789</v>
+      </c>
+      <c r="L7" s="21">
+        <v>8530000</v>
+      </c>
+      <c r="M7" s="35">
+        <v>6350000</v>
+      </c>
+      <c r="N7" s="35">
+        <v>49700000</v>
+      </c>
+      <c r="O7" s="52" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDIRECT(ADDRESS(I7+2,21))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="56" t="e" cm="1">
+        <v>5.3365416642101522</v>
+      </c>
+      <c r="P7" s="52" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT(ADDRESS(I7+2,22))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="85"/>
-      <c r="S7" s="57"/>
+        <v>5.3410767636119738</v>
+      </c>
+      <c r="Q7" s="65">
+        <v>16.302910000000001</v>
+      </c>
+      <c r="S7" s="53"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -1846,25 +1994,39 @@
       <c r="G8" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H8" s="30" t="str" cm="1">
+      <c r="H8" s="28" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDIRECT(ADDRESS(I8+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
       <c r="I8" s="13">
         <v>1</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="62" t="e" cm="1">
+      <c r="J8" s="60">
+        <v>257.97710000000001</v>
+      </c>
+      <c r="K8" s="60">
+        <v>1064.6969999999999</v>
+      </c>
+      <c r="L8" s="21">
+        <v>7310000</v>
+      </c>
+      <c r="M8" s="21">
+        <v>6350000</v>
+      </c>
+      <c r="N8" s="21">
+        <v>49700000</v>
+      </c>
+      <c r="O8" s="56" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDIRECT(ADDRESS(I8+2,21))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="62" t="e" cm="1">
+        <v>5.3365416642101522</v>
+      </c>
+      <c r="P8" s="56" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT(ADDRESS(I8+2,22))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="86"/>
+        <v>5.3410767636119738</v>
+      </c>
+      <c r="Q8" s="66">
+        <v>17.987919999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -1889,247 +2051,300 @@
       <c r="G9" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="30" t="str" cm="1">
+      <c r="H9" s="28" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT(ADDRESS(I9+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
       <c r="I9" s="13">
         <v>1</v>
       </c>
-      <c r="O9" s="62" t="e" cm="1">
+      <c r="J9" s="60">
+        <v>138.12440000000001</v>
+      </c>
+      <c r="K9" s="60">
+        <v>681.38250000000005</v>
+      </c>
+      <c r="L9" s="55">
+        <v>7160000</v>
+      </c>
+      <c r="M9" s="55">
+        <v>7330000</v>
+      </c>
+      <c r="N9" s="55">
+        <v>39400000</v>
+      </c>
+      <c r="O9" s="56" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDIRECT(ADDRESS(I9+2,21))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="62" t="e" cm="1">
+        <v>6.9930487490163609</v>
+      </c>
+      <c r="P9" s="56" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT(ADDRESS(I9+2,22))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="87"/>
+        <v>6.9987694200892152</v>
+      </c>
+      <c r="Q9" s="67">
+        <v>17.30743</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39">
+      <c r="A10" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="40" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="48" t="str" cm="1">
+      <c r="H10" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDIRECT(ADDRESS(I10+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="42">
         <v>1</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="64" t="e" cm="1">
+      <c r="J10" s="61">
+        <v>172.85939999999999</v>
+      </c>
+      <c r="K10" s="61">
+        <v>685.2998</v>
+      </c>
+      <c r="L10" s="57">
+        <v>7160000</v>
+      </c>
+      <c r="M10" s="57">
+        <v>7330000</v>
+      </c>
+      <c r="N10" s="57">
+        <v>39400000</v>
+      </c>
+      <c r="O10" s="58" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDIRECT(ADDRESS(I10+2,21))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="64" t="e" cm="1">
+        <v>6.9930487490163609</v>
+      </c>
+      <c r="P10" s="58" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT(ADDRESS(I10+2,22))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="88"/>
+        <v>6.9987694200892152</v>
+      </c>
+      <c r="Q10" s="68">
+        <v>21.163499999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>35</v>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="32">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="35" t="str" cm="1">
+      <c r="H11" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDIRECT(ADDRESS(I11+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="34">
         <v>1</v>
       </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="56" t="e" cm="1">
+      <c r="J11" s="59">
+        <v>119.5269</v>
+      </c>
+      <c r="K11" s="59">
+        <v>590.41510000000005</v>
+      </c>
+      <c r="L11" s="35">
+        <v>7160000</v>
+      </c>
+      <c r="M11" s="35">
+        <v>7410000</v>
+      </c>
+      <c r="N11" s="35">
+        <v>49400000</v>
+      </c>
+      <c r="O11" s="52" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDIRECT(ADDRESS(I11+2,21))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="56" t="e" cm="1">
+        <v>5.3750226864624402</v>
+      </c>
+      <c r="P11" s="52" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDIRECT(ADDRESS(I11+2,22))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="85"/>
+        <v>5.3795853269537472</v>
+      </c>
+      <c r="Q11" s="65">
+        <v>17.70326</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39">
+      <c r="A12" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="40">
         <v>1E-3</v>
       </c>
-      <c r="H12" s="48" t="str" cm="1">
+      <c r="H12" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDIRECT(ADDRESS(I12+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="42">
         <v>1</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="64" t="e" cm="1">
+      <c r="J12" s="61">
+        <v>113.92829999999999</v>
+      </c>
+      <c r="K12" s="61">
+        <v>631.64009999999996</v>
+      </c>
+      <c r="L12" s="57">
+        <v>7160000</v>
+      </c>
+      <c r="M12" s="57">
+        <v>7410000</v>
+      </c>
+      <c r="N12" s="57">
+        <v>49400000</v>
+      </c>
+      <c r="O12" s="58" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDIRECT(ADDRESS(I12+2,21))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="64" t="e" cm="1">
+        <v>5.3750226864624402</v>
+      </c>
+      <c r="P12" s="58" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDIRECT(ADDRESS(I12+2,22))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="88"/>
+        <v>5.3795853269537472</v>
+      </c>
+      <c r="Q12" s="68">
+        <v>14.668760000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
+      <c r="A13" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="32">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H13" s="35" t="str" cm="1">
+      <c r="H13" s="33" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDIRECT(ADDRESS(I13+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="34">
         <v>1</v>
       </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="56" t="e" cm="1">
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="52" t="e" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDIRECT(ADDRESS(I13+2,21))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="56" t="e" cm="1">
+      <c r="P13" s="52" t="e" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDIRECT(ADDRESS(I13+2,22))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="85"/>
+      <c r="Q13" s="65"/>
     </row>
     <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39">
+      <c r="A14" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="40">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="48" t="str" cm="1">
+      <c r="H14" s="44" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDIRECT(ADDRESS(I14+2,20))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="51">
         <v>1</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="64" t="e" cm="1">
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="58" t="e" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDIRECT(ADDRESS(I14+2,21))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="64" t="e" cm="1">
+      <c r="P14" s="58" t="e" cm="1">
         <f t="array" aca="1" ref="P14" ca="1">INDIRECT(ADDRESS(I14+2,22))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="84"/>
+      <c r="Q14" s="64"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -2139,113 +2354,133 @@
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="27" t="str" cm="1">
+      <c r="H15" s="25" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDIRECT(ADDRESS(I15+2,20))</f>
-        <v>Material</v>
-      </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="60" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="I15" s="50">
+        <v>2</v>
+      </c>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="54" t="e" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDIRECT(ADDRESS(I15+2,21))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P15" s="60" t="e" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" s="54" t="e" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">INDIRECT(ADDRESS(I15+2,22))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q15" s="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="69"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
-      <c r="H16" s="30" t="str" cm="1">
+      <c r="H16" s="28" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">INDIRECT(ADDRESS(I16+2,20))</f>
-        <v>Material</v>
-      </c>
-      <c r="I16" s="51"/>
-      <c r="O16" s="62" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="I16" s="47">
+        <v>2</v>
+      </c>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDIRECT(ADDRESS(I16+2,21))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P16" s="62" t="e" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="P16" ca="1">INDIRECT(ADDRESS(I16+2,22))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q16" s="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="63"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
-      <c r="H17" s="30" t="str" cm="1">
+      <c r="H17" s="28" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">INDIRECT(ADDRESS(I17+2,20))</f>
-        <v>Material</v>
-      </c>
-      <c r="I17" s="51"/>
-      <c r="O17" s="62" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="I17" s="47">
+        <v>2</v>
+      </c>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDIRECT(ADDRESS(I17+2,21))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P17" s="62" t="e" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">INDIRECT(ADDRESS(I17+2,22))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q17" s="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="63"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
-      <c r="H18" s="30" t="str" cm="1">
+      <c r="H18" s="28" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDIRECT(ADDRESS(I18+2,20))</f>
-        <v>Material</v>
-      </c>
-      <c r="I18" s="51"/>
-      <c r="O18" s="62" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="I18" s="47">
+        <v>2</v>
+      </c>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDIRECT(ADDRESS(I18+2,21))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P18" s="62" t="e" cm="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" s="56" t="e" cm="1">
         <f t="array" aca="1" ref="P18" ca="1">INDIRECT(ADDRESS(I18+2,22))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q18" s="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="63"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
-      <c r="I19" s="30"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="67"/>
+      <c r="I19" s="28"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C20" s="9"/>
-      <c r="I20" s="30"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="67"/>
+      <c r="I20" s="28"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
-      <c r="I21" s="30"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="67"/>
+      <c r="I21" s="28"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="67"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="60"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="67"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
@@ -2304,6 +2539,17 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="J3:J1048576">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+      <formula>150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="top10" dxfId="0" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="1" priority="3" rank="4"/>
+    <cfRule type="top10" dxfId="2" priority="2" percent="1" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D4EDCC-FCFB-460B-B002-CF5CA7D06055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8050EE-6C31-4990-B122-29708264CD9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2595" yWindow="2595" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -930,6 +930,27 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,62 +969,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAA72D4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD1B3E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9E5ECE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1039,168 +1018,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9E5ECE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD1B3E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAA72D4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9E5ECE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAA72D4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9E5ECE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9E5ECE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8C3FC5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF893BC3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8C3FC5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF893BC3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF893BC3"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFB17ED8"/>
       <color rgb="FF9E5ECE"/>
@@ -1233,7 +1053,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C8C8C8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1490,67 +1310,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="D1" colorId="23" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="11" customWidth="1"/>
     <col min="5" max="5" width="21" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="12"/>
-    <col min="8" max="8" width="13.88671875" style="28" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="12"/>
+    <col min="8" max="8" width="13.85546875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="13" customWidth="1"/>
     <col min="10" max="10" width="16" style="60" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="60" customWidth="1"/>
-    <col min="12" max="14" width="12.6640625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="26"/>
-    <col min="16" max="16" width="11.33203125" style="27" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="70" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="60" customWidth="1"/>
+    <col min="12" max="14" width="12.7109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="26"/>
+    <col min="16" max="16" width="11.28515625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="70" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" customWidth="1"/>
-    <col min="22" max="22" width="9.77734375" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="75" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="82"/>
+      <c r="F1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="76" t="s">
+      <c r="G1" s="86"/>
+      <c r="H1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="86" t="s">
+      <c r="I1" s="84"/>
+      <c r="J1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81"/>
       <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
@@ -1575,28 +1395,28 @@
       <c r="I2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="N2" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="85" t="s">
+      <c r="Q2" s="76" t="s">
         <v>53</v>
       </c>
       <c r="S2" s="16" t="s">
@@ -1627,7 +1447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -1710,7 +1530,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>A3+1</f>
         <v>2</v>
@@ -1755,7 +1575,7 @@
       <c r="N4" s="55">
         <v>49700000</v>
       </c>
-      <c r="O4" s="79" cm="1">
+      <c r="O4" s="71" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
         <v>5.3365416642101522</v>
       </c>
@@ -1779,7 +1599,7 @@
         <v>160000000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f t="shared" ref="A5:A14" si="0">A4+1</f>
         <v>3</v>
@@ -1856,7 +1676,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1913,7 +1733,7 @@
         <v>19.70532</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1971,7 +1791,7 @@
       </c>
       <c r="S7" s="53"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2028,7 +1848,7 @@
         <v>17.987919999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2085,7 +1905,7 @@
         <v>17.30743</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2142,7 +1962,7 @@
         <v>21.163499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2199,7 +2019,7 @@
         <v>17.70326</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2256,7 +2076,7 @@
         <v>14.668760000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2301,7 +2121,7 @@
       </c>
       <c r="Q13" s="65"/>
     </row>
-    <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2346,7 +2166,7 @@
       </c>
       <c r="Q14" s="64"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -2376,7 +2196,7 @@
       </c>
       <c r="Q15" s="69"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="H16" s="28" t="str" cm="1">
@@ -2399,7 +2219,7 @@
       </c>
       <c r="Q16" s="63"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="H17" s="28" t="str" cm="1">
@@ -2422,7 +2242,7 @@
       </c>
       <c r="Q17" s="63"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="H18" s="28" t="str" cm="1">
@@ -2445,7 +2265,7 @@
       </c>
       <c r="Q18" s="63"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
       <c r="I19" s="28"/>
@@ -2456,78 +2276,78 @@
       <c r="P19" s="60"/>
       <c r="Q19" s="60"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="I20" s="28"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="60"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="I21" s="28"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="60"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="60"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="60"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
@@ -2540,15 +2360,15 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J1048576">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="top10" dxfId="0" priority="4" rank="3"/>
-    <cfRule type="top10" dxfId="1" priority="3" rank="4"/>
-    <cfRule type="top10" dxfId="2" priority="2" percent="1" bottom="1" rank="4"/>
-    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="4"/>
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8050EE-6C31-4990-B122-29708264CD9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEF24D3-1FD2-46CE-A02F-A02C1F826C10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2595" yWindow="2595" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -218,6 +218,24 @@
   </si>
   <si>
     <t>Masa[kg]</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>10x10_4</t>
+  </si>
+  <si>
+    <t>10x10_1</t>
+  </si>
+  <si>
+    <t>I1_1</t>
+  </si>
+  <si>
+    <t>I1_4</t>
+  </si>
+  <si>
+    <t>Comp_</t>
   </si>
 </sst>
 </file>
@@ -686,19 +704,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -717,6 +722,19 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -724,9 +742,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,7 +789,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,12 +804,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -815,12 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,22 +846,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,9 +867,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -912,9 +901,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -939,13 +925,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,9 +949,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,6 +960,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,7 +999,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFB17ED8"/>
+          <bgColor rgb="FFAA72D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1B3E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1000,14 +1020,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFD1B3E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAA72D4"/>
+          <bgColor rgb="FFB17ED8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1308,1067 +1321,1227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="D1" colorId="23" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I14"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="12"/>
-    <col min="8" max="8" width="13.85546875" style="28" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16" style="60" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="60" customWidth="1"/>
-    <col min="12" max="14" width="12.7109375" style="20" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="26"/>
-    <col min="16" max="16" width="11.28515625" style="27" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="70" customWidth="1"/>
-    <col min="18" max="18" width="2" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="11"/>
+    <col min="10" max="10" width="13.88671875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="16" style="49" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="49" customWidth="1"/>
+    <col min="14" max="16" width="12.6640625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="22"/>
+    <col min="18" max="18" width="11.33203125" style="23" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="58" customWidth="1"/>
+    <col min="20" max="20" width="2" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="82" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="83" t="s">
+      <c r="I1" s="73"/>
+      <c r="J1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="77" t="s">
+      <c r="K1" s="71"/>
+      <c r="L1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="49" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+    </row>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="69"/>
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="J2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="K2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="L2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="M2" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="N2" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="O2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="P2" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="74" t="s">
+      <c r="Q2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="R2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="S2" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="U2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="V2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="W2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="X2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Z2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="AA2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="AB2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AC2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AD2" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="9">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="4">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="12">
+      <c r="I3" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="33" t="str" cm="1">
-        <f t="array" aca="1" ref="H3" ca="1">INDIRECT(ADDRESS(I3+2,20))</f>
+      <c r="J3" s="24" t="str" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">INDIRECT(ADDRESS(K3+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I3" s="34">
+      <c r="K3" s="28">
         <v>1</v>
       </c>
-      <c r="J3" s="59">
-        <v>118.47709999999999</v>
-      </c>
-      <c r="K3" s="59">
-        <v>615.22640000000001</v>
-      </c>
-      <c r="L3" s="35">
-        <v>7920000</v>
-      </c>
-      <c r="M3" s="35">
-        <v>8300000</v>
-      </c>
-      <c r="N3" s="55">
-        <v>49700000</v>
-      </c>
-      <c r="O3" s="56" cm="1">
-        <f t="array" aca="1" ref="O3" ca="1">INDIRECT(ADDRESS(I3+2,21))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>5.3365416642101522</v>
-      </c>
-      <c r="P3" s="56" cm="1">
-        <f t="array" aca="1" ref="P3" ca="1">INDIRECT(ADDRESS(I3+2,22))/(MAX(L3,M3,N3)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>5.3410767636119738</v>
-      </c>
-      <c r="Q3" s="63">
+      <c r="L3" s="48">
+        <v>126.4606</v>
+      </c>
+      <c r="M3" s="48">
+        <v>651.89840000000004</v>
+      </c>
+      <c r="N3" s="29">
+        <v>8320000</v>
+      </c>
+      <c r="O3" s="29">
+        <v>8910000</v>
+      </c>
+      <c r="P3" s="44">
+        <v>47700000</v>
+      </c>
+      <c r="Q3" s="45" cm="1">
+        <f t="array" aca="1" ref="Q3" ca="1">INDIRECT(ADDRESS(K3+2,23))/(MAX(N3,O3,P3)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>5.6022247528562801</v>
+      </c>
+      <c r="R3" s="45" cm="1">
+        <f t="array" aca="1" ref="R3" ca="1">INDIRECT(ADDRESS(K3+2,24))/(MAX(N3,O3,P3)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>5.6069500031764168</v>
+      </c>
+      <c r="S3" s="52">
         <v>16.691759999999999</v>
       </c>
-      <c r="S3" s="18">
+      <c r="U3" s="16">
         <v>1</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="V3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="19">
+      <c r="W3" s="17">
         <v>503000000</v>
       </c>
-      <c r="V3" s="19">
+      <c r="X3" s="17">
         <v>572000000</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Z3" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AA3" s="16">
         <v>1.2</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AB3" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AC3" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AD3" s="16">
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="10">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="12">
+      <c r="I4" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="25" t="str" cm="1">
-        <f t="array" aca="1" ref="H4" ca="1">INDIRECT(ADDRESS(I4+2,20))</f>
+      <c r="J4" s="24" t="str" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">INDIRECT(ADDRESS(K4+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I4" s="13">
+      <c r="K4" s="12">
         <v>1</v>
       </c>
-      <c r="J4" s="60">
-        <v>249.5684</v>
-      </c>
-      <c r="K4" s="60">
-        <v>1045.6030000000001</v>
-      </c>
-      <c r="L4" s="21">
-        <v>6930000</v>
-      </c>
-      <c r="M4" s="21">
-        <v>7030000</v>
-      </c>
-      <c r="N4" s="55">
-        <v>49700000</v>
-      </c>
-      <c r="O4" s="71" cm="1">
-        <f t="array" aca="1" ref="O4" ca="1">INDIRECT(ADDRESS(I4+2,21))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>5.3365416642101522</v>
-      </c>
-      <c r="P4" s="56" cm="1">
-        <f t="array" aca="1" ref="P4" ca="1">INDIRECT(ADDRESS(I4+2,22))/(MAX(L4,M4,N4)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>5.3410767636119738</v>
-      </c>
-      <c r="Q4" s="63">
+      <c r="L4" s="49">
+        <v>257.48950000000002</v>
+      </c>
+      <c r="M4" s="49">
+        <v>1057.298</v>
+      </c>
+      <c r="N4" s="19">
+        <v>7150000</v>
+      </c>
+      <c r="O4" s="19">
+        <v>7350000</v>
+      </c>
+      <c r="P4" s="44">
+        <v>19900000</v>
+      </c>
+      <c r="Q4" s="45" cm="1">
+        <f t="array" aca="1" ref="Q4" ca="1">INDIRECT(ADDRESS(K4+2,23))/(MAX(N4,O4,P4)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>14.82543320157008</v>
+      </c>
+      <c r="R4" s="45" cm="1">
+        <f t="array" aca="1" ref="R4" ca="1">INDIRECT(ADDRESS(K4+2,24))/(MAX(N4,O4,P4)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>14.836759555352517</v>
+      </c>
+      <c r="S4" s="52">
         <v>18.247150000000001</v>
       </c>
-      <c r="S4" s="18">
+      <c r="U4" s="16">
         <v>2</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="V4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="19">
+      <c r="W4" s="17">
         <v>150000000</v>
       </c>
-      <c r="V4" s="19">
+      <c r="X4" s="17">
         <v>160000000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <f t="shared" ref="A5:A14" si="0">A4+1</f>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A18" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="10">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="12">
+      <c r="I5" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H5" s="25" t="str" cm="1">
-        <f t="array" aca="1" ref="H5" ca="1">INDIRECT(ADDRESS(I5+2,20))</f>
+      <c r="J5" s="24" t="str" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">INDIRECT(ADDRESS(K5+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I5" s="13">
+      <c r="K5" s="12">
         <v>1</v>
       </c>
-      <c r="J5" s="60">
-        <v>139.73820000000001</v>
-      </c>
-      <c r="K5" s="60">
-        <v>654.02819999999997</v>
-      </c>
-      <c r="L5" s="21">
-        <v>6430000</v>
-      </c>
-      <c r="M5" s="21">
-        <v>6350000</v>
-      </c>
-      <c r="N5" s="55">
-        <v>38700000</v>
-      </c>
-      <c r="O5" s="56" cm="1">
-        <f t="array" aca="1" ref="O5" ca="1">INDIRECT(ADDRESS(I5+2,21))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>7.1376258581716954</v>
-      </c>
-      <c r="P5" s="56" cm="1">
-        <f t="array" aca="1" ref="P5" ca="1">INDIRECT(ADDRESS(I5+2,22))/(MAX(L5,M5,N5)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>7.1434500039151185</v>
-      </c>
-      <c r="Q5" s="63">
+      <c r="L5" s="49">
+        <v>148.0548</v>
+      </c>
+      <c r="M5" s="49">
+        <v>686.71209999999996</v>
+      </c>
+      <c r="N5" s="19">
+        <v>6820000</v>
+      </c>
+      <c r="O5" s="19">
+        <v>6870000</v>
+      </c>
+      <c r="P5" s="44">
+        <v>37800000</v>
+      </c>
+      <c r="Q5" s="45" cm="1">
+        <f t="array" aca="1" ref="Q5" ca="1">INDIRECT(ADDRESS(K5+2,23))/(MAX(N5,O5,P5)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>7.3313788547948313</v>
+      </c>
+      <c r="R5" s="45" cm="1">
+        <f t="array" aca="1" ref="R5" ca="1">INDIRECT(ADDRESS(K5+2,24))/(MAX(N5,O5,P5)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>7.3373416706750021</v>
+      </c>
+      <c r="S5" s="52">
         <v>18.149940000000001</v>
       </c>
-      <c r="X5" cm="1">
-        <f t="array" aca="1" ref="X5" ca="1">INDIRECT(ADDRESS(3,24))</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y5" cm="1">
-        <f t="array" aca="1" ref="Y5" ca="1">INDIRECT(ADDRESS(3,25))</f>
-        <v>1.2</v>
-      </c>
-      <c r="Z5" cm="1">
+      <c r="Z5" s="83" cm="1">
         <f t="array" aca="1" ref="Z5" ca="1">INDIRECT(ADDRESS(3,26))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA5" cm="1">
+      <c r="AA5" s="83" cm="1">
         <f t="array" aca="1" ref="AA5" ca="1">INDIRECT(ADDRESS(3,27))</f>
+        <v>1.2</v>
+      </c>
+      <c r="AB5" s="83" cm="1">
+        <f t="array" aca="1" ref="AB5" ca="1">INDIRECT(ADDRESS(3,28))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB5" cm="1">
-        <f t="array" aca="1" ref="AB5" ca="1">INDIRECT(ADDRESS(3,28))</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
+      <c r="AC5" s="83" cm="1">
+        <f t="array" aca="1" ref="AC5" ca="1">INDIRECT(ADDRESS(3,29))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD5" s="83" cm="1">
+        <f t="array" aca="1" ref="AD5" ca="1">INDIRECT(ADDRESS(3,29))</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="32">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="F6" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="G6" s="33">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="40">
+      <c r="I6" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="41" t="str" cm="1">
-        <f t="array" aca="1" ref="H6" ca="1">INDIRECT(ADDRESS(I6+2,20))</f>
+      <c r="J6" s="36" t="str" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">INDIRECT(ADDRESS(K6+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I6" s="42">
+      <c r="K6" s="35">
         <v>1</v>
       </c>
-      <c r="J6" s="61">
-        <v>151.86250000000001</v>
-      </c>
-      <c r="K6" s="61">
-        <v>649.08910000000003</v>
-      </c>
-      <c r="L6" s="43">
-        <v>5690000</v>
-      </c>
-      <c r="M6" s="43">
-        <v>6350000</v>
-      </c>
-      <c r="N6" s="57">
-        <v>38700000</v>
-      </c>
-      <c r="O6" s="58" cm="1">
-        <f t="array" aca="1" ref="O6" ca="1">INDIRECT(ADDRESS(I6+2,21))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>7.1376258581716954</v>
-      </c>
-      <c r="P6" s="58" cm="1">
-        <f t="array" aca="1" ref="P6" ca="1">INDIRECT(ADDRESS(I6+2,22))/(MAX(L6,M6,N6)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>7.1434500039151185</v>
-      </c>
-      <c r="Q6" s="64">
+      <c r="L6" s="50">
+        <v>161.90629999999999</v>
+      </c>
+      <c r="M6" s="50">
+        <v>684.91539999999998</v>
+      </c>
+      <c r="N6" s="46">
+        <v>6060000</v>
+      </c>
+      <c r="O6" s="46">
+        <v>5830000</v>
+      </c>
+      <c r="P6" s="46">
+        <v>38600000</v>
+      </c>
+      <c r="Q6" s="47" cm="1">
+        <f t="array" aca="1" ref="Q6" ca="1">INDIRECT(ADDRESS(K6+2,23))/(MAX(N6,O6,P6)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>7.1587077904467513</v>
+      </c>
+      <c r="R6" s="47" cm="1">
+        <f t="array" aca="1" ref="R6" ca="1">INDIRECT(ADDRESS(K6+2,24))/(MAX(N6,O6,P6)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>7.1645470246506502</v>
+      </c>
+      <c r="S6" s="53">
         <v>19.70532</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="4">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="6">
+      <c r="I7" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="25" t="str" cm="1">
-        <f t="array" aca="1" ref="H7" ca="1">INDIRECT(ADDRESS(I7+2,20))</f>
+      <c r="J7" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">INDIRECT(ADDRESS(K7+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I7" s="7">
+      <c r="K7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="62">
-        <v>119.07470000000001</v>
-      </c>
-      <c r="K7" s="62">
-        <v>636.6789</v>
-      </c>
-      <c r="L7" s="21">
-        <v>8530000</v>
-      </c>
-      <c r="M7" s="35">
-        <v>6350000</v>
-      </c>
-      <c r="N7" s="35">
-        <v>49700000</v>
-      </c>
-      <c r="O7" s="52" cm="1">
-        <f t="array" aca="1" ref="O7" ca="1">INDIRECT(ADDRESS(I7+2,21))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>5.3365416642101522</v>
-      </c>
-      <c r="P7" s="52" cm="1">
-        <f t="array" aca="1" ref="P7" ca="1">INDIRECT(ADDRESS(I7+2,22))/(MAX(L7,M7,N7)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>5.3410767636119738</v>
-      </c>
-      <c r="Q7" s="65">
+      <c r="L7" s="51">
+        <v>126.8723</v>
+      </c>
+      <c r="M7" s="51">
+        <v>673.61019999999996</v>
+      </c>
+      <c r="N7" s="19">
+        <v>9030000</v>
+      </c>
+      <c r="O7" s="19">
+        <v>9790000</v>
+      </c>
+      <c r="P7" s="19">
+        <v>49200000</v>
+      </c>
+      <c r="Q7" s="43" cm="1">
+        <f t="array" aca="1" ref="Q7" ca="1">INDIRECT(ADDRESS(K7+2,23))/(MAX(N7,O7,P7)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>5.4009374128301744</v>
+      </c>
+      <c r="R7" s="43" cm="1">
+        <f t="array" aca="1" ref="R7" ca="1">INDIRECT(ADDRESS(K7+2,24))/(MAX(N7,O7,P7)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>5.4055186006405505</v>
+      </c>
+      <c r="S7" s="54">
         <v>16.302910000000001</v>
       </c>
-      <c r="S7" s="53"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="U7" s="42"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="10">
+        <v>2.75E-2</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="12">
+      <c r="I8" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H8" s="28" t="str" cm="1">
-        <f t="array" aca="1" ref="H8" ca="1">INDIRECT(ADDRESS(I8+2,20))</f>
+      <c r="J8" s="24" t="str" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">INDIRECT(ADDRESS(K8+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I8" s="13">
+      <c r="K8" s="12">
         <v>1</v>
       </c>
-      <c r="J8" s="60">
-        <v>257.97710000000001</v>
-      </c>
-      <c r="K8" s="60">
-        <v>1064.6969999999999</v>
-      </c>
-      <c r="L8" s="21">
-        <v>7310000</v>
-      </c>
-      <c r="M8" s="21">
-        <v>6350000</v>
-      </c>
-      <c r="N8" s="21">
-        <v>49700000</v>
-      </c>
-      <c r="O8" s="56" cm="1">
-        <f t="array" aca="1" ref="O8" ca="1">INDIRECT(ADDRESS(I8+2,21))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>5.3365416642101522</v>
-      </c>
-      <c r="P8" s="56" cm="1">
-        <f t="array" aca="1" ref="P8" ca="1">INDIRECT(ADDRESS(I8+2,22))/(MAX(L8,M8,N8)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>5.3410767636119738</v>
-      </c>
-      <c r="Q8" s="66">
+      <c r="L8" s="49">
+        <v>265.91219999999998</v>
+      </c>
+      <c r="M8" s="49">
+        <v>1073.2860000000001</v>
+      </c>
+      <c r="N8" s="19">
+        <v>7530000</v>
+      </c>
+      <c r="O8" s="19">
+        <v>7880000</v>
+      </c>
+      <c r="P8" s="19">
+        <v>19400000</v>
+      </c>
+      <c r="Q8" s="45" cm="1">
+        <f t="array" aca="1" ref="Q8" ca="1">INDIRECT(ADDRESS(K8+2,23))/(MAX(N8,O8,P8)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>15.23330519130127</v>
+      </c>
+      <c r="R8" s="45" cm="1">
+        <f t="array" aca="1" ref="R8" ca="1">INDIRECT(ADDRESS(K8+2,24))/(MAX(N8,O8,P8)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>15.244923461418303</v>
+      </c>
+      <c r="S8" s="54">
         <v>17.987919999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="10">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="12">
+      <c r="I9" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="28" t="str" cm="1">
-        <f t="array" aca="1" ref="H9" ca="1">INDIRECT(ADDRESS(I9+2,20))</f>
+      <c r="J9" s="24" t="str" cm="1">
+        <f t="array" aca="1" ref="J9" ca="1">INDIRECT(ADDRESS(K9+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I9" s="13">
+      <c r="K9" s="12">
         <v>1</v>
       </c>
-      <c r="J9" s="60">
-        <v>138.12440000000001</v>
-      </c>
-      <c r="K9" s="60">
-        <v>681.38250000000005</v>
-      </c>
-      <c r="L9" s="55">
-        <v>7160000</v>
-      </c>
-      <c r="M9" s="55">
-        <v>7330000</v>
-      </c>
-      <c r="N9" s="55">
-        <v>39400000</v>
-      </c>
-      <c r="O9" s="56" cm="1">
-        <f t="array" aca="1" ref="O9" ca="1">INDIRECT(ADDRESS(I9+2,21))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>6.9930487490163609</v>
-      </c>
-      <c r="P9" s="56" cm="1">
-        <f t="array" aca="1" ref="P9" ca="1">INDIRECT(ADDRESS(I9+2,22))/(MAX(L9,M9,N9)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>6.9987694200892152</v>
-      </c>
-      <c r="Q9" s="67">
+      <c r="L9" s="49">
+        <v>146.1568</v>
+      </c>
+      <c r="M9" s="49">
+        <v>714.84889999999996</v>
+      </c>
+      <c r="N9" s="44">
+        <v>7540000</v>
+      </c>
+      <c r="O9" s="44">
+        <v>7870000</v>
+      </c>
+      <c r="P9" s="44">
+        <v>3840000</v>
+      </c>
+      <c r="Q9" s="45" cm="1">
+        <f t="array" aca="1" ref="Q9" ca="1">INDIRECT(ADDRESS(K9+2,23))/(MAX(N9,O9,P9)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>39.016025503334767</v>
+      </c>
+      <c r="R9" s="45" cm="1">
+        <f t="array" aca="1" ref="R9" ca="1">INDIRECT(ADDRESS(K9+2,24))/(MAX(N9,O9,P9)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>39.044665203496209</v>
+      </c>
+      <c r="S9" s="55">
         <v>17.30743</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="32">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="F10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="G10" s="33">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="12">
+      <c r="I10" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="44" t="str" cm="1">
-        <f t="array" aca="1" ref="H10" ca="1">INDIRECT(ADDRESS(I10+2,20))</f>
+      <c r="J10" s="36" t="str" cm="1">
+        <f t="array" aca="1" ref="J10" ca="1">INDIRECT(ADDRESS(K10+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I10" s="42">
+      <c r="K10" s="35">
         <v>1</v>
       </c>
-      <c r="J10" s="61">
-        <v>172.85939999999999</v>
-      </c>
-      <c r="K10" s="61">
-        <v>685.2998</v>
-      </c>
-      <c r="L10" s="57">
-        <v>7160000</v>
-      </c>
-      <c r="M10" s="57">
-        <v>7330000</v>
-      </c>
-      <c r="N10" s="57">
-        <v>39400000</v>
-      </c>
-      <c r="O10" s="58" cm="1">
-        <f t="array" aca="1" ref="O10" ca="1">INDIRECT(ADDRESS(I10+2,21))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>6.9930487490163609</v>
-      </c>
-      <c r="P10" s="58" cm="1">
-        <f t="array" aca="1" ref="P10" ca="1">INDIRECT(ADDRESS(I10+2,22))/(MAX(L10,M10,N10)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>6.9987694200892152</v>
-      </c>
-      <c r="Q10" s="68">
+      <c r="L10" s="50">
+        <v>183.85769999999999</v>
+      </c>
+      <c r="M10" s="50">
+        <v>720.61429999999996</v>
+      </c>
+      <c r="N10" s="46">
+        <v>5610000</v>
+      </c>
+      <c r="O10" s="46">
+        <v>5300000</v>
+      </c>
+      <c r="P10" s="46">
+        <v>35300000</v>
+      </c>
+      <c r="Q10" s="47" cm="1">
+        <f t="array" aca="1" ref="Q10" ca="1">INDIRECT(ADDRESS(K10+2,23))/(MAX(N10,O10,P10)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>7.9214198501769015</v>
+      </c>
+      <c r="R10" s="47" cm="1">
+        <f t="array" aca="1" ref="R10" ca="1">INDIRECT(ADDRESS(K10+2,24))/(MAX(N10,O10,P10)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>7.9278049617992945</v>
+      </c>
+      <c r="S10" s="56">
         <v>21.163499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="32">
+      <c r="I11" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="33" t="str" cm="1">
-        <f t="array" aca="1" ref="H11" ca="1">INDIRECT(ADDRESS(I11+2,20))</f>
+      <c r="J11" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="J11" ca="1">INDIRECT(ADDRESS(K11+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I11" s="34">
+      <c r="K11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="59">
-        <v>119.5269</v>
-      </c>
-      <c r="K11" s="59">
-        <v>590.41510000000005</v>
-      </c>
-      <c r="L11" s="35">
-        <v>7160000</v>
-      </c>
-      <c r="M11" s="35">
-        <v>7410000</v>
-      </c>
-      <c r="N11" s="35">
-        <v>49400000</v>
-      </c>
-      <c r="O11" s="52" cm="1">
-        <f t="array" aca="1" ref="O11" ca="1">INDIRECT(ADDRESS(I11+2,21))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>5.3750226864624402</v>
-      </c>
-      <c r="P11" s="52" cm="1">
-        <f t="array" aca="1" ref="P11" ca="1">INDIRECT(ADDRESS(I11+2,22))/(MAX(L11,M11,N11)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>5.3795853269537472</v>
-      </c>
-      <c r="Q11" s="65">
+      <c r="L11" s="51">
+        <v>130.42359999999999</v>
+      </c>
+      <c r="M11" s="51">
+        <v>639.75260000000003</v>
+      </c>
+      <c r="N11" s="19">
+        <v>7510000</v>
+      </c>
+      <c r="O11" s="19">
+        <v>8070000</v>
+      </c>
+      <c r="P11" s="19">
+        <v>48300000</v>
+      </c>
+      <c r="Q11" s="43" cm="1">
+        <f t="array" aca="1" ref="Q11" ca="1">INDIRECT(ADDRESS(K11+2,23))/(MAX(N11,O11,P11)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>5.5202095385350836</v>
+      </c>
+      <c r="R11" s="43" cm="1">
+        <f t="array" aca="1" ref="R11" ca="1">INDIRECT(ADDRESS(K11+2,24))/(MAX(N11,O11,P11)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>5.5248760900934801</v>
+      </c>
+      <c r="S11" s="54">
         <v>17.70326</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
+    <row r="12" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="32">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="G12" s="33">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="40">
+      <c r="I12" s="34">
         <v>1E-3</v>
       </c>
-      <c r="H12" s="44" t="str" cm="1">
-        <f t="array" aca="1" ref="H12" ca="1">INDIRECT(ADDRESS(I12+2,20))</f>
+      <c r="J12" s="36" t="str" cm="1">
+        <f t="array" aca="1" ref="J12" ca="1">INDIRECT(ADDRESS(K12+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I12" s="42">
+      <c r="K12" s="35">
         <v>1</v>
       </c>
-      <c r="J12" s="61">
-        <v>113.92829999999999</v>
-      </c>
-      <c r="K12" s="61">
-        <v>631.64009999999996</v>
-      </c>
-      <c r="L12" s="57">
-        <v>7160000</v>
-      </c>
-      <c r="M12" s="57">
-        <v>7410000</v>
-      </c>
-      <c r="N12" s="57">
-        <v>49400000</v>
-      </c>
-      <c r="O12" s="58" cm="1">
-        <f t="array" aca="1" ref="O12" ca="1">INDIRECT(ADDRESS(I12+2,21))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>5.3750226864624402</v>
-      </c>
-      <c r="P12" s="58" cm="1">
-        <f t="array" aca="1" ref="P12" ca="1">INDIRECT(ADDRESS(I12+2,22))/(MAX(L12,M12,N12)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>5.3795853269537472</v>
-      </c>
-      <c r="Q12" s="68">
+      <c r="L12" s="50">
+        <v>116.18429999999999</v>
+      </c>
+      <c r="M12" s="50">
+        <v>637.673</v>
+      </c>
+      <c r="N12" s="46">
+        <v>12700000</v>
+      </c>
+      <c r="O12" s="46">
+        <v>12200000</v>
+      </c>
+      <c r="P12" s="46">
+        <v>68700000</v>
+      </c>
+      <c r="Q12" s="47" cm="1">
+        <f t="array" aca="1" ref="Q12" ca="1">INDIRECT(ADDRESS(K12+2,23))/(MAX(N12,O12,P12)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>3.5840774484897322</v>
+      </c>
+      <c r="R12" s="47" cm="1">
+        <f t="array" aca="1" ref="R12" ca="1">INDIRECT(ADDRESS(K12+2,24))/(MAX(N12,O12,P12)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>3.5873582991486916</v>
+      </c>
+      <c r="S12" s="56">
         <v>14.668760000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="4">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="32">
+      <c r="I13" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H13" s="33" t="str" cm="1">
-        <f t="array" aca="1" ref="H13" ca="1">INDIRECT(ADDRESS(I13+2,20))</f>
+      <c r="J13" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="J13" ca="1">INDIRECT(ADDRESS(K13+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I13" s="34">
+      <c r="K13" s="6">
         <v>1</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="52" t="e" cm="1">
-        <f t="array" aca="1" ref="O13" ca="1">INDIRECT(ADDRESS(I13+2,21))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="52" t="e" cm="1">
-        <f t="array" aca="1" ref="P13" ca="1">INDIRECT(ADDRESS(I13+2,22))/(MAX(L13,M13,N13)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="65"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
+      <c r="L13" s="51">
+        <v>128.37690000000001</v>
+      </c>
+      <c r="M13" s="51">
+        <v>6.6046649999999998</v>
+      </c>
+      <c r="N13" s="19">
+        <v>8320000</v>
+      </c>
+      <c r="O13" s="19">
+        <v>8910000</v>
+      </c>
+      <c r="P13" s="19">
+        <v>54700000</v>
+      </c>
+      <c r="Q13" s="43" cm="1">
+        <f t="array" aca="1" ref="Q13" ca="1">INDIRECT(ADDRESS(K13+2,23))/(MAX(N13,O13,P13)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>4.7573331025821695</v>
+      </c>
+      <c r="R13" s="43" cm="1">
+        <f t="array" aca="1" ref="R13" ca="1">INDIRECT(ADDRESS(K13+2,24))/(MAX(N13,O13,P13)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>4.7614536590770591</v>
+      </c>
+      <c r="S13" s="54">
+        <v>17.721679999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="32">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="F14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="G14" s="33">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="40">
+      <c r="I14" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="44" t="str" cm="1">
-        <f t="array" aca="1" ref="H14" ca="1">INDIRECT(ADDRESS(I14+2,20))</f>
+      <c r="J14" s="36" t="str" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">INDIRECT(ADDRESS(K14+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="I14" s="51">
+      <c r="K14" s="41">
         <v>1</v>
       </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="58" t="e" cm="1">
-        <f t="array" aca="1" ref="O14" ca="1">INDIRECT(ADDRESS(I14+2,21))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="L14" s="50">
+        <v>129.07300000000001</v>
+      </c>
+      <c r="M14" s="50">
+        <v>662.14189999999996</v>
+      </c>
+      <c r="N14" s="46">
+        <v>8330000</v>
+      </c>
+      <c r="O14" s="46">
+        <v>8920000</v>
+      </c>
+      <c r="P14" s="46">
+        <v>61600000</v>
+      </c>
+      <c r="Q14" s="47" cm="1">
+        <f t="array" aca="1" ref="Q14" ca="1">INDIRECT(ADDRESS(K14+2,23))/(MAX(N14,O14,P14)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>4.1124370245331923</v>
+      </c>
+      <c r="R14" s="47" cm="1">
+        <f t="array" aca="1" ref="R14" ca="1">INDIRECT(ADDRESS(K14+2,24))/(MAX(N14,O14,P14)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>4.1160960251869341</v>
+      </c>
+      <c r="S14" s="53">
+        <v>17.721679999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="9">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J15" s="21" t="str" cm="1">
+        <f t="array" aca="1" ref="J15" ca="1">INDIRECT(ADDRESS(K15+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K15" s="40">
+        <v>2</v>
+      </c>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="79" t="e" cm="1">
+        <f t="array" aca="1" ref="Q15" ca="1">INDIRECT(ADDRESS(K15+2,23))/(MAX(N15,O15,P15)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="58" t="e" cm="1">
-        <f t="array" aca="1" ref="P14" ca="1">INDIRECT(ADDRESS(I14+2,22))/(MAX(L14,M14,N14)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+      <c r="R15" s="79" t="e" cm="1">
+        <f t="array" aca="1" ref="R15" ca="1">INDIRECT(ADDRESS(K15+2,24))/(MAX(N15,O15,P15)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="64"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="25" t="str" cm="1">
-        <f t="array" aca="1" ref="H15" ca="1">INDIRECT(ADDRESS(I15+2,20))</f>
+      <c r="S15" s="57"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="J16" s="24" t="str" cm="1">
+        <f t="array" aca="1" ref="J16" ca="1">INDIRECT(ADDRESS(K16+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="I15" s="50">
+      <c r="K16" s="37">
         <v>2</v>
       </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="54" t="e" cm="1">
-        <f t="array" aca="1" ref="O15" ca="1">INDIRECT(ADDRESS(I15+2,21))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="59" t="e" cm="1">
+        <f t="array" aca="1" ref="Q16" ca="1">INDIRECT(ADDRESS(K16+2,23))/(MAX(N16,O16,P16)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P15" s="54" t="e" cm="1">
-        <f t="array" aca="1" ref="P15" ca="1">INDIRECT(ADDRESS(I15+2,22))/(MAX(L15,M15,N15)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+      <c r="R16" s="59" t="e" cm="1">
+        <f t="array" aca="1" ref="R16" ca="1">INDIRECT(ADDRESS(K16+2,24))/(MAX(N16,O16,P16)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="69"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="H16" s="28" t="str" cm="1">
-        <f t="array" aca="1" ref="H16" ca="1">INDIRECT(ADDRESS(I16+2,20))</f>
+      <c r="S16" s="52"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="J17" s="24" t="str" cm="1">
+        <f t="array" aca="1" ref="J17" ca="1">INDIRECT(ADDRESS(K17+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="I16" s="47">
+      <c r="K17" s="37">
         <v>2</v>
       </c>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="56" t="e" cm="1">
-        <f t="array" aca="1" ref="O16" ca="1">INDIRECT(ADDRESS(I16+2,21))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="59" t="e" cm="1">
+        <f t="array" aca="1" ref="Q17" ca="1">INDIRECT(ADDRESS(K17+2,23))/(MAX(N17,O17,P17)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P16" s="56" t="e" cm="1">
-        <f t="array" aca="1" ref="P16" ca="1">INDIRECT(ADDRESS(I16+2,22))/(MAX(L16,M16,N16)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+      <c r="R17" s="59" t="e" cm="1">
+        <f t="array" aca="1" ref="R17" ca="1">INDIRECT(ADDRESS(K17+2,24))/(MAX(N17,O17,P17)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q16" s="63"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="H17" s="28" t="str" cm="1">
-        <f t="array" aca="1" ref="H17" ca="1">INDIRECT(ADDRESS(I17+2,20))</f>
+      <c r="S17" s="52"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="36" t="str" cm="1">
+        <f t="array" aca="1" ref="J18" ca="1">INDIRECT(ADDRESS(K18+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="I17" s="47">
+      <c r="K18" s="41">
         <v>2</v>
       </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="56" t="e" cm="1">
-        <f t="array" aca="1" ref="O17" ca="1">INDIRECT(ADDRESS(I17+2,21))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="80" t="e" cm="1">
+        <f t="array" aca="1" ref="Q18" ca="1">INDIRECT(ADDRESS(K18+2,23))/(MAX(N18,O18,P18)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P17" s="56" t="e" cm="1">
-        <f t="array" aca="1" ref="P17" ca="1">INDIRECT(ADDRESS(I17+2,22))/(MAX(L17,M17,N17)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
+      <c r="R18" s="80" t="e" cm="1">
+        <f t="array" aca="1" ref="R18" ca="1">INDIRECT(ADDRESS(K18+2,24))/(MAX(N18,O18,P18)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" s="63"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="H18" s="28" t="str" cm="1">
-        <f t="array" aca="1" ref="H18" ca="1">INDIRECT(ADDRESS(I18+2,20))</f>
-        <v>CFRP</v>
-      </c>
-      <c r="I18" s="47">
-        <v>2</v>
-      </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="56" t="e" cm="1">
-        <f t="array" aca="1" ref="O18" ca="1">INDIRECT(ADDRESS(I18+2,21))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="56" t="e" cm="1">
-        <f t="array" aca="1" ref="P18" ca="1">INDIRECT(ADDRESS(I18+2,22))/(MAX(L18,M18,N18)*INDIRECT(ADDRESS(3,24))*INDIRECT(ADDRESS(3,25))*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,28))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="63"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="I19" s="28"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="9"/>
-      <c r="I20" s="28"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="60"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="I21" s="28"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="60"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="60"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="60"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
+      <c r="S18" s="53"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="K20" s="24"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="49"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="K21" s="24"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="49"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="49"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="49"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="L1:S1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J1048576">
+  <conditionalFormatting sqref="L3:L1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="top10" dxfId="3" priority="4" rank="3"/>
-    <cfRule type="top10" dxfId="2" priority="3" rank="4"/>
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" bottom="1" rank="4"/>
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="4"/>
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="2" priority="2" percent="1" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="1" priority="3" rank="4"/>
+    <cfRule type="top10" dxfId="0" priority="4" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEF24D3-1FD2-46CE-A02F-A02C1F826C10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D39231-30F0-4F43-9447-61CBC9D678C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -235,7 +235,13 @@
     <t>I1_4</t>
   </si>
   <si>
-    <t>Comp_</t>
+    <t>10x10_comp</t>
+  </si>
+  <si>
+    <t>I3_comp</t>
+  </si>
+  <si>
+    <t>Comp_26</t>
   </si>
 </sst>
 </file>
@@ -934,36 +940,54 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,24 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,7 +1330,7 @@
   <dimension ref="A1:AD39"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1354,47 +1360,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="75" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="72" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="70" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
     </row>
     <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="69"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="65" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -1412,10 +1418,10 @@
       <c r="I2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="69" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="60" t="s">
@@ -1696,23 +1702,23 @@
       <c r="S5" s="52">
         <v>18.149940000000001</v>
       </c>
-      <c r="Z5" s="83" cm="1">
+      <c r="Z5" s="70" cm="1">
         <f t="array" aca="1" ref="Z5" ca="1">INDIRECT(ADDRESS(3,26))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA5" s="83" cm="1">
+      <c r="AA5" s="70" cm="1">
         <f t="array" aca="1" ref="AA5" ca="1">INDIRECT(ADDRESS(3,27))</f>
         <v>1.2</v>
       </c>
-      <c r="AB5" s="83" cm="1">
+      <c r="AB5" s="70" cm="1">
         <f t="array" aca="1" ref="AB5" ca="1">INDIRECT(ADDRESS(3,28))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC5" s="83" cm="1">
+      <c r="AC5" s="70" cm="1">
         <f t="array" aca="1" ref="AC5" ca="1">INDIRECT(ADDRESS(3,29))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD5" s="83" cm="1">
+      <c r="AD5" s="70" cm="1">
         <f t="array" aca="1" ref="AD5" ca="1">INDIRECT(ADDRESS(3,29))</f>
         <v>1.1000000000000001</v>
       </c>
@@ -2291,28 +2297,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="9">
-        <v>6.4999999999999997E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="10">
-        <v>1.35E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I15" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="J15" s="21" t="str" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">INDIRECT(ADDRESS(K15+2,22))</f>
@@ -2326,11 +2332,11 @@
       <c r="N15" s="51"/>
       <c r="O15" s="51"/>
       <c r="P15" s="51"/>
-      <c r="Q15" s="79" t="e" cm="1">
+      <c r="Q15" s="66" t="e" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDIRECT(ADDRESS(K15+2,23))/(MAX(N15,O15,P15)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R15" s="79" t="e" cm="1">
+      <c r="R15" s="66" t="e" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">INDIRECT(ADDRESS(K15+2,24))/(MAX(N15,O15,P15)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>#DIV/0!</v>
       </c>
@@ -2417,11 +2423,11 @@
       <c r="N18" s="50"/>
       <c r="O18" s="50"/>
       <c r="P18" s="50"/>
-      <c r="Q18" s="80" t="e" cm="1">
+      <c r="Q18" s="67" t="e" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDIRECT(ADDRESS(K18+2,23))/(MAX(N18,O18,P18)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R18" s="80" t="e" cm="1">
+      <c r="R18" s="67" t="e" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">INDIRECT(ADDRESS(K18+2,24))/(MAX(N18,O18,P18)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>#DIV/0!</v>
       </c>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D39231-30F0-4F43-9447-61CBC9D678C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E54CB5-1FE8-4E1B-ABDA-5A0C330AC59E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -242,6 +242,30 @@
   </si>
   <si>
     <t>Comp_26</t>
+  </si>
+  <si>
+    <t>5x5_comp</t>
+  </si>
+  <si>
+    <t>.005     .005</t>
+  </si>
+  <si>
+    <t>Comp_13</t>
+  </si>
+  <si>
+    <t>Comp_104</t>
+  </si>
+  <si>
+    <t>2x2_comp</t>
+  </si>
+  <si>
+    <t>.002     .002</t>
+  </si>
+  <si>
+    <t>I5_comp</t>
+  </si>
+  <si>
+    <t>.030    .002    .021    .030</t>
   </si>
 </sst>
 </file>
@@ -351,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -744,18 +768,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,9 +961,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -946,9 +988,6 @@
     <xf numFmtId="11" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,11 +1036,119 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA72D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1B3E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB17ED8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1330,28 +1477,28 @@
   <dimension ref="A1:AD39"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="L16" sqref="L16:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="11"/>
-    <col min="10" max="10" width="13.88671875" style="24" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="16" style="49" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" style="49" customWidth="1"/>
-    <col min="14" max="16" width="12.6640625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="22"/>
-    <col min="18" max="18" width="11.33203125" style="23" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="18" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="13.88671875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16" style="48" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="48" customWidth="1"/>
+    <col min="14" max="16" width="12.6640625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="21"/>
+    <col min="18" max="18" width="11.33203125" style="22" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="56" customWidth="1"/>
     <col min="20" max="20" width="2" customWidth="1"/>
     <col min="21" max="21" width="9.6640625" customWidth="1"/>
     <col min="22" max="22" width="15.109375" customWidth="1"/>
@@ -1360,429 +1507,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="76" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="74" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="71" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
     </row>
     <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="64" t="s">
+      <c r="S2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1.35E-2</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="24" t="str" cm="1">
+      <c r="J3" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDIRECT(ADDRESS(K3+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="27">
         <v>1</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="47">
         <v>126.4606</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="47">
         <v>651.89840000000004</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="28">
         <v>8320000</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="28">
         <v>8910000</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="43">
         <v>47700000</v>
       </c>
-      <c r="Q3" s="45" cm="1">
+      <c r="Q3" s="44" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDIRECT(ADDRESS(K3+2,23))/(MAX(N3,O3,P3)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>5.6022247528562801</v>
       </c>
-      <c r="R3" s="45" cm="1">
+      <c r="R3" s="44" cm="1">
         <f t="array" aca="1" ref="R3" ca="1">INDIRECT(ADDRESS(K3+2,24))/(MAX(N3,O3,P3)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>5.6069500031764168</v>
       </c>
-      <c r="S3" s="52">
+      <c r="S3" s="51">
         <v>16.691759999999999</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="15">
         <v>1</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="16">
         <v>503000000</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="16">
         <v>572000000</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AA3" s="15">
         <v>1.2</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AB3" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AC3" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AD3" s="15">
         <v>1.25</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J4" s="24" t="str" cm="1">
+      <c r="J4" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDIRECT(ADDRESS(K4+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>1</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="48">
         <v>257.48950000000002</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="48">
         <v>1057.298</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="18">
         <v>7150000</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="18">
         <v>7350000</v>
       </c>
-      <c r="P4" s="44">
+      <c r="P4" s="43">
         <v>19900000</v>
       </c>
-      <c r="Q4" s="45" cm="1">
+      <c r="Q4" s="44" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDIRECT(ADDRESS(K4+2,23))/(MAX(N4,O4,P4)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>14.82543320157008</v>
       </c>
-      <c r="R4" s="45" cm="1">
+      <c r="R4" s="44" cm="1">
         <f t="array" aca="1" ref="R4" ca="1">INDIRECT(ADDRESS(K4+2,24))/(MAX(N4,O4,P4)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>14.836759555352517</v>
       </c>
-      <c r="S4" s="52">
+      <c r="S4" s="51">
         <v>18.247150000000001</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <v>2</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="16">
         <v>150000000</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="16">
         <v>160000000</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f t="shared" ref="A5:A18" si="0">A4+1</f>
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A19" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>1.35E-2</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J5" s="24" t="str" cm="1">
+      <c r="J5" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDIRECT(ADDRESS(K5+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>1</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="48">
         <v>148.0548</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="48">
         <v>686.71209999999996</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="18">
         <v>6820000</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="18">
         <v>6870000</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="43">
         <v>37800000</v>
       </c>
-      <c r="Q5" s="45" cm="1">
+      <c r="Q5" s="44" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDIRECT(ADDRESS(K5+2,23))/(MAX(N5,O5,P5)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>7.3313788547948313</v>
       </c>
-      <c r="R5" s="45" cm="1">
+      <c r="R5" s="44" cm="1">
         <f t="array" aca="1" ref="R5" ca="1">INDIRECT(ADDRESS(K5+2,24))/(MAX(N5,O5,P5)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>7.3373416706750021</v>
       </c>
-      <c r="S5" s="52">
+      <c r="S5" s="51">
         <v>18.149940000000001</v>
       </c>
-      <c r="Z5" s="70" cm="1">
+      <c r="Z5" s="67" cm="1">
         <f t="array" aca="1" ref="Z5" ca="1">INDIRECT(ADDRESS(3,26))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA5" s="70" cm="1">
+      <c r="AA5" s="67" cm="1">
         <f t="array" aca="1" ref="AA5" ca="1">INDIRECT(ADDRESS(3,27))</f>
         <v>1.2</v>
       </c>
-      <c r="AB5" s="70" cm="1">
+      <c r="AB5" s="67" cm="1">
         <f t="array" aca="1" ref="AB5" ca="1">INDIRECT(ADDRESS(3,28))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC5" s="70" cm="1">
+      <c r="AC5" s="67" cm="1">
         <f t="array" aca="1" ref="AC5" ca="1">INDIRECT(ADDRESS(3,29))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD5" s="70" cm="1">
+      <c r="AD5" s="67" cm="1">
         <f t="array" aca="1" ref="AD5" ca="1">INDIRECT(ADDRESS(3,29))</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>1.35E-2</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="36" t="str" cm="1">
+      <c r="J6" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDIRECT(ADDRESS(K6+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="34">
         <v>1</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="49">
         <v>161.90629999999999</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="49">
         <v>684.91539999999998</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="45">
         <v>6060000</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="45">
         <v>5830000</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="45">
         <v>38600000</v>
       </c>
-      <c r="Q6" s="47" cm="1">
+      <c r="Q6" s="46" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDIRECT(ADDRESS(K6+2,23))/(MAX(N6,O6,P6)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>7.1587077904467513</v>
       </c>
-      <c r="R6" s="47" cm="1">
+      <c r="R6" s="46" cm="1">
         <f t="array" aca="1" ref="R6" ca="1">INDIRECT(ADDRESS(K6+2,24))/(MAX(N6,O6,P6)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>7.1645470246506502</v>
       </c>
-      <c r="S6" s="53">
+      <c r="S6" s="52">
         <v>19.70532</v>
       </c>
     </row>
@@ -1791,251 +1938,251 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J7" s="21" t="str" cm="1">
+      <c r="J7" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDIRECT(ADDRESS(K7+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="50">
         <v>126.8723</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="50">
         <v>673.61019999999996</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="18">
         <v>9030000</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="18">
         <v>9790000</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="18">
         <v>49200000</v>
       </c>
-      <c r="Q7" s="43" cm="1">
+      <c r="Q7" s="42" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDIRECT(ADDRESS(K7+2,23))/(MAX(N7,O7,P7)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>5.4009374128301744</v>
       </c>
-      <c r="R7" s="43" cm="1">
+      <c r="R7" s="42" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">INDIRECT(ADDRESS(K7+2,24))/(MAX(N7,O7,P7)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>5.4055186006405505</v>
       </c>
-      <c r="S7" s="54">
+      <c r="S7" s="53">
         <v>16.302910000000001</v>
       </c>
-      <c r="U7" s="42"/>
+      <c r="U7" s="41"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>2.75E-2</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J8" s="24" t="str" cm="1">
+      <c r="J8" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDIRECT(ADDRESS(K8+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>1</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="48">
         <v>265.91219999999998</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="48">
         <v>1073.2860000000001</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="18">
         <v>7530000</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="18">
         <v>7880000</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <v>19400000</v>
       </c>
-      <c r="Q8" s="45" cm="1">
+      <c r="Q8" s="44" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDIRECT(ADDRESS(K8+2,23))/(MAX(N8,O8,P8)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>15.23330519130127</v>
       </c>
-      <c r="R8" s="45" cm="1">
+      <c r="R8" s="44" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">INDIRECT(ADDRESS(K8+2,24))/(MAX(N8,O8,P8)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>15.244923461418303</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="53">
         <v>17.987919999999999</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J9" s="24" t="str" cm="1">
+      <c r="J9" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDIRECT(ADDRESS(K9+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="48">
         <v>146.1568</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="48">
         <v>714.84889999999996</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N9" s="43">
         <v>7540000</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="43">
         <v>7870000</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="43">
         <v>3840000</v>
       </c>
-      <c r="Q9" s="45" cm="1">
+      <c r="Q9" s="44" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDIRECT(ADDRESS(K9+2,23))/(MAX(N9,O9,P9)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>39.016025503334767</v>
       </c>
-      <c r="R9" s="45" cm="1">
+      <c r="R9" s="44" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDIRECT(ADDRESS(K9+2,24))/(MAX(N9,O9,P9)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>39.044665203496209</v>
       </c>
-      <c r="S9" s="55">
+      <c r="S9" s="54">
         <v>17.30743</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="32">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="33">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J10" s="36" t="str" cm="1">
+      <c r="J10" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">INDIRECT(ADDRESS(K10+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="34">
         <v>1</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="49">
         <v>183.85769999999999</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="49">
         <v>720.61429999999996</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="45">
         <v>5610000</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="45">
         <v>5300000</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="45">
         <v>35300000</v>
       </c>
-      <c r="Q10" s="47" cm="1">
+      <c r="Q10" s="46" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDIRECT(ADDRESS(K10+2,23))/(MAX(N10,O10,P10)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>7.9214198501769015</v>
       </c>
-      <c r="R10" s="47" cm="1">
+      <c r="R10" s="46" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDIRECT(ADDRESS(K10+2,24))/(MAX(N10,O10,P10)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>7.9278049617992945</v>
       </c>
-      <c r="S10" s="56">
+      <c r="S10" s="55">
         <v>21.163499999999999</v>
       </c>
     </row>
@@ -2044,124 +2191,124 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J11" s="21" t="str" cm="1">
+      <c r="J11" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">INDIRECT(ADDRESS(K11+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="51">
+      <c r="L11" s="50">
         <v>130.42359999999999</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="50">
         <v>639.75260000000003</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="18">
         <v>7510000</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="18">
         <v>8070000</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="18">
         <v>48300000</v>
       </c>
-      <c r="Q11" s="43" cm="1">
+      <c r="Q11" s="42" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDIRECT(ADDRESS(K11+2,23))/(MAX(N11,O11,P11)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>5.5202095385350836</v>
       </c>
-      <c r="R11" s="43" cm="1">
+      <c r="R11" s="42" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">INDIRECT(ADDRESS(K11+2,24))/(MAX(N11,O11,P11)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>5.5248760900934801</v>
       </c>
-      <c r="S11" s="54">
+      <c r="S11" s="53">
         <v>17.70326</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="33">
         <v>1E-3</v>
       </c>
-      <c r="J12" s="36" t="str" cm="1">
+      <c r="J12" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">INDIRECT(ADDRESS(K12+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <v>1</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="49">
         <v>116.18429999999999</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="49">
         <v>637.673</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="45">
         <v>12700000</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="45">
         <v>12200000</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="45">
         <v>68700000</v>
       </c>
-      <c r="Q12" s="47" cm="1">
+      <c r="Q12" s="46" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDIRECT(ADDRESS(K12+2,23))/(MAX(N12,O12,P12)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>3.5840774484897322</v>
       </c>
-      <c r="R12" s="47" cm="1">
+      <c r="R12" s="46" cm="1">
         <f t="array" aca="1" ref="R12" ca="1">INDIRECT(ADDRESS(K12+2,24))/(MAX(N12,O12,P12)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>3.5873582991486916</v>
       </c>
-      <c r="S12" s="56">
+      <c r="S12" s="55">
         <v>14.668760000000001</v>
       </c>
     </row>
@@ -2170,124 +2317,124 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1.35E-2</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J13" s="21" t="str" cm="1">
+      <c r="J13" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">INDIRECT(ADDRESS(K13+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>1</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="50">
         <v>128.37690000000001</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="50">
         <v>6.6046649999999998</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="18">
         <v>8320000</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="18">
         <v>8910000</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="18">
         <v>54700000</v>
       </c>
-      <c r="Q13" s="43" cm="1">
+      <c r="Q13" s="42" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDIRECT(ADDRESS(K13+2,23))/(MAX(N13,O13,P13)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>4.7573331025821695</v>
       </c>
-      <c r="R13" s="43" cm="1">
+      <c r="R13" s="42" cm="1">
         <f t="array" aca="1" ref="R13" ca="1">INDIRECT(ADDRESS(K13+2,24))/(MAX(N13,O13,P13)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>4.7614536590770591</v>
       </c>
-      <c r="S13" s="54">
+      <c r="S13" s="53">
         <v>17.721679999999999</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <v>1.35E-2</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J14" s="36" t="str" cm="1">
+      <c r="J14" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">INDIRECT(ADDRESS(K14+2,22))</f>
         <v>AL 7075 T6</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="40">
         <v>1</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="49">
         <v>129.07300000000001</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="49">
         <v>662.14189999999996</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="45">
         <v>8330000</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14" s="45">
         <v>8920000</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14" s="45">
         <v>61600000</v>
       </c>
-      <c r="Q14" s="47" cm="1">
+      <c r="Q14" s="46" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">INDIRECT(ADDRESS(K14+2,23))/(MAX(N14,O14,P14)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>4.1124370245331923</v>
       </c>
-      <c r="R14" s="47" cm="1">
+      <c r="R14" s="46" cm="1">
         <f t="array" aca="1" ref="R14" ca="1">INDIRECT(ADDRESS(K14+2,24))/(MAX(N14,O14,P14)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>4.1160960251869341</v>
       </c>
-      <c r="S14" s="53">
+      <c r="S14" s="52">
         <v>17.721679999999999</v>
       </c>
     </row>
@@ -2296,238 +2443,390 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>6.3E-3</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="J15" s="21" t="str" cm="1">
+      <c r="J15" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">INDIRECT(ADDRESS(K15+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="39">
         <v>2</v>
       </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="66" t="e" cm="1">
+      <c r="L15" s="18">
+        <v>154.71270000000001</v>
+      </c>
+      <c r="M15" s="18">
+        <v>850.74109999999996</v>
+      </c>
+      <c r="N15" s="18">
+        <v>8380000</v>
+      </c>
+      <c r="O15" s="18">
+        <v>8360000</v>
+      </c>
+      <c r="P15" s="18">
+        <v>4580000</v>
+      </c>
+      <c r="Q15" s="64" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDIRECT(ADDRESS(K15+2,23))/(MAX(N15,O15,P15)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" s="66" t="e" cm="1">
+        <v>10.206963020608256</v>
+      </c>
+      <c r="R15" s="64" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">INDIRECT(ADDRESS(K15+2,24))/(MAX(N15,O15,P15)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" s="57"/>
+        <v>9.519602622010952</v>
+      </c>
+      <c r="S15" s="81">
+        <v>14.678739999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="J16" s="24" t="str" cm="1">
+      <c r="B16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J16" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">INDIRECT(ADDRESS(K16+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="36">
         <v>2</v>
       </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="59" t="e" cm="1">
+      <c r="L16" s="43">
+        <v>152.01509999999999</v>
+      </c>
+      <c r="M16" s="43">
+        <v>834.73580000000004</v>
+      </c>
+      <c r="N16" s="43">
+        <v>8440000</v>
+      </c>
+      <c r="O16" s="43">
+        <v>8420000</v>
+      </c>
+      <c r="P16" s="43">
+        <v>46600000</v>
+      </c>
+      <c r="Q16" s="57" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDIRECT(ADDRESS(K16+2,23))/(MAX(N16,O16,P16)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="59" t="e" cm="1">
+        <v>1.0153294015600252</v>
+      </c>
+      <c r="R16" s="57" cm="1">
         <f t="array" aca="1" ref="R16" ca="1">INDIRECT(ADDRESS(K16+2,24))/(MAX(N16,O16,P16)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="52"/>
+        <v>0.89172253159767756</v>
+      </c>
+      <c r="S16" s="82">
+        <v>14.37276</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="83">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="J17" s="24" t="str" cm="1">
+      <c r="B17" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="85">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="86">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="H17" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="87">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J17" s="88" t="str" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">INDIRECT(ADDRESS(K17+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="89">
         <v>2</v>
       </c>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="59" t="e" cm="1">
+      <c r="L17" s="90">
+        <v>143.9923</v>
+      </c>
+      <c r="M17" s="90">
+        <v>805.81730000000005</v>
+      </c>
+      <c r="N17" s="90">
+        <v>10200000</v>
+      </c>
+      <c r="O17" s="90">
+        <v>10000000</v>
+      </c>
+      <c r="P17" s="90">
+        <v>46500000</v>
+      </c>
+      <c r="Q17" s="91" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDIRECT(ADDRESS(K17+2,23))/(MAX(N17,O17,P17)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" s="59" t="e" cm="1">
+        <v>1.0196634432838105</v>
+      </c>
+      <c r="R17" s="91" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">INDIRECT(ADDRESS(K17+2,24))/(MAX(N17,O17,P17)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" s="52"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30">
+        <v>0.89579075209573711</v>
+      </c>
+      <c r="S17" s="92">
+        <v>13.57723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="105" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="103">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="36" t="str" cm="1">
+      <c r="B18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1.5520000000000001E-2</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="J18" s="23" t="str" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">INDIRECT(ADDRESS(K18+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="36">
         <v>2</v>
       </c>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="67" t="e" cm="1">
+      <c r="L18" s="43">
+        <v>220.3433</v>
+      </c>
+      <c r="M18" s="43">
+        <v>890.80039999999997</v>
+      </c>
+      <c r="N18" s="43">
+        <v>10100000</v>
+      </c>
+      <c r="O18" s="43">
+        <v>5770000</v>
+      </c>
+      <c r="P18" s="43">
+        <v>53700000</v>
+      </c>
+      <c r="Q18" s="57" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDIRECT(ADDRESS(K18+2,23))/(MAX(N18,O18,P18)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" s="67" t="e" cm="1">
+        <v>0.74887057937983648</v>
+      </c>
+      <c r="R18" s="57" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">INDIRECT(ADDRESS(K18+2,24))/(MAX(N18,O18,P18)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="53"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
+        <v>0.64160651717787309</v>
+      </c>
+      <c r="S18" s="104">
+        <v>17.217079999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="93">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="95">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="86">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="H19" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="97">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="J19" s="98" t="str" cm="1">
+        <f t="array" aca="1" ref="J19" ca="1">INDIRECT(ADDRESS(K19+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K19" s="99">
+        <v>2</v>
+      </c>
+      <c r="L19" s="100">
+        <v>141.88290000000001</v>
+      </c>
+      <c r="M19" s="100">
+        <v>787.99739999999997</v>
+      </c>
+      <c r="N19" s="100">
+        <v>10700000</v>
+      </c>
+      <c r="O19" s="100">
+        <v>7270000</v>
+      </c>
+      <c r="P19" s="100">
+        <v>86800000</v>
+      </c>
+      <c r="Q19" s="101" cm="1">
+        <f t="array" aca="1" ref="Q19" ca="1">INDIRECT(ADDRESS(K19+2,23))/(MAX(N19,O19,P19)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>8.1962558902041405E-2</v>
+      </c>
+      <c r="R19" s="101" cm="1">
+        <f t="array" aca="1" ref="R19" ca="1">INDIRECT(ADDRESS(K19+2,24))/(MAX(N19,O19,P19)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>1.5602188622716229E-2</v>
+      </c>
+      <c r="S19" s="102">
+        <v>13.33296</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="K20" s="24"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="49"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="K20" s="23"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="48"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="K21" s="24"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="49"/>
+      <c r="B21" s="8"/>
+      <c r="K21" s="23"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="48"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="49"/>
+      <c r="B22" s="8"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="48"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="49"/>
+      <c r="B23" s="8"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="48"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="9"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="9"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="9"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="9"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="9"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="9"/>
+      <c r="B39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2538,12 +2837,23 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L3:L1048576">
+  <conditionalFormatting sqref="L3:L18 L20:L1048576">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S18 S20:S1048576">
+    <cfRule type="top10" dxfId="8" priority="6" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="7" priority="7" percent="1" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="6" priority="8" rank="4"/>
+    <cfRule type="top10" dxfId="5" priority="9" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1048576">
+  <conditionalFormatting sqref="S19">
     <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="4"/>
     <cfRule type="top10" dxfId="2" priority="2" percent="1" bottom="1" rank="4"/>
     <cfRule type="top10" dxfId="1" priority="3" rank="4"/>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E54CB5-1FE8-4E1B-ABDA-5A0C330AC59E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBF0B76-D288-4214-B8A5-ADF724BCE179}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,9 +964,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,9 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,6 +991,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,79 +1081,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="23" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:S16"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="B1" colorId="23" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,47 +1507,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78" t="s">
+      <c r="C1" s="91"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="73" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="68" t="s">
+      <c r="K1" s="87"/>
+      <c r="L1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
     </row>
     <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="62" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -1565,34 +1565,34 @@
       <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="O2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="62" t="s">
+      <c r="S2" s="61" t="s">
         <v>53</v>
       </c>
       <c r="U2" s="14" t="s">
@@ -1849,23 +1849,23 @@
       <c r="S5" s="51">
         <v>18.149940000000001</v>
       </c>
-      <c r="Z5" s="67" cm="1">
+      <c r="Z5" s="65" cm="1">
         <f t="array" aca="1" ref="Z5" ca="1">INDIRECT(ADDRESS(3,26))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA5" s="67" cm="1">
+      <c r="AA5" s="65" cm="1">
         <f t="array" aca="1" ref="AA5" ca="1">INDIRECT(ADDRESS(3,27))</f>
         <v>1.2</v>
       </c>
-      <c r="AB5" s="67" cm="1">
+      <c r="AB5" s="65" cm="1">
         <f t="array" aca="1" ref="AB5" ca="1">INDIRECT(ADDRESS(3,28))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC5" s="67" cm="1">
+      <c r="AC5" s="65" cm="1">
         <f t="array" aca="1" ref="AC5" ca="1">INDIRECT(ADDRESS(3,29))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AD5" s="67" cm="1">
+      <c r="AD5" s="65" cm="1">
         <f t="array" aca="1" ref="AD5" ca="1">INDIRECT(ADDRESS(3,29))</f>
         <v>1.1000000000000001</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>128.37690000000001</v>
       </c>
       <c r="M13" s="50">
-        <v>6.6046649999999998</v>
+        <v>660.4665</v>
       </c>
       <c r="N13" s="18">
         <v>8320000</v>
@@ -2474,10 +2474,10 @@
       <c r="K15" s="39">
         <v>2</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="50">
         <v>154.71270000000001</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="50">
         <v>850.74109999999996</v>
       </c>
       <c r="N15" s="18">
@@ -2489,15 +2489,15 @@
       <c r="P15" s="18">
         <v>4580000</v>
       </c>
-      <c r="Q15" s="64" cm="1">
+      <c r="Q15" s="42" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDIRECT(ADDRESS(K15+2,23))/(MAX(N15,O15,P15)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>10.206963020608256</v>
       </c>
-      <c r="R15" s="64" cm="1">
+      <c r="R15" s="42" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">INDIRECT(ADDRESS(K15+2,24))/(MAX(N15,O15,P15)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>9.519602622010952</v>
       </c>
-      <c r="S15" s="81">
+      <c r="S15" s="98">
         <v>14.678739999999999</v>
       </c>
     </row>
@@ -2537,10 +2537,10 @@
       <c r="K16" s="36">
         <v>2</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="48">
         <v>152.01509999999999</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="48">
         <v>834.73580000000004</v>
       </c>
       <c r="N16" s="43">
@@ -2552,83 +2552,83 @@
       <c r="P16" s="43">
         <v>46600000</v>
       </c>
-      <c r="Q16" s="57" cm="1">
+      <c r="Q16" s="44" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDIRECT(ADDRESS(K16+2,23))/(MAX(N16,O16,P16)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>1.0153294015600252</v>
       </c>
-      <c r="R16" s="57" cm="1">
+      <c r="R16" s="44" cm="1">
         <f t="array" aca="1" ref="R16" ca="1">INDIRECT(ADDRESS(K16+2,24))/(MAX(N16,O16,P16)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.89172253159767756</v>
       </c>
-      <c r="S16" s="82">
+      <c r="S16" s="51">
         <v>14.37276</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="83">
+      <c r="A17" s="66">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="68">
         <v>3.8E-3</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="86" t="s">
+      <c r="F17" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="69">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="H17" s="87" t="s">
+      <c r="H17" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="87">
+      <c r="I17" s="70">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="J17" s="88" t="str" cm="1">
+      <c r="J17" s="71" t="str" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">INDIRECT(ADDRESS(K17+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="K17" s="89">
+      <c r="K17" s="72">
         <v>2</v>
       </c>
-      <c r="L17" s="90">
+      <c r="L17" s="96">
         <v>143.9923</v>
       </c>
-      <c r="M17" s="90">
+      <c r="M17" s="96">
         <v>805.81730000000005</v>
       </c>
-      <c r="N17" s="90">
+      <c r="N17" s="73">
         <v>10200000</v>
       </c>
-      <c r="O17" s="90">
+      <c r="O17" s="73">
         <v>10000000</v>
       </c>
-      <c r="P17" s="90">
+      <c r="P17" s="73">
         <v>46500000</v>
       </c>
-      <c r="Q17" s="91" cm="1">
+      <c r="Q17" s="99" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDIRECT(ADDRESS(K17+2,23))/(MAX(N17,O17,P17)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>1.0196634432838105</v>
       </c>
-      <c r="R17" s="91" cm="1">
+      <c r="R17" s="99" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">INDIRECT(ADDRESS(K17+2,24))/(MAX(N17,O17,P17)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.89579075209573711</v>
       </c>
-      <c r="S17" s="92">
+      <c r="S17" s="100">
         <v>13.57723</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103">
+      <c r="A18" s="82">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2663,10 +2663,10 @@
       <c r="K18" s="36">
         <v>2</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="48">
         <v>220.3433</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="48">
         <v>890.80039999999997</v>
       </c>
       <c r="N18" s="43">
@@ -2678,78 +2678,78 @@
       <c r="P18" s="43">
         <v>53700000</v>
       </c>
-      <c r="Q18" s="57" cm="1">
+      <c r="Q18" s="44" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDIRECT(ADDRESS(K18+2,23))/(MAX(N18,O18,P18)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>0.74887057937983648</v>
       </c>
-      <c r="R18" s="57" cm="1">
+      <c r="R18" s="44" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">INDIRECT(ADDRESS(K18+2,24))/(MAX(N18,O18,P18)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.64160651717787309</v>
       </c>
-      <c r="S18" s="104">
+      <c r="S18" s="101">
         <v>17.217079999999999</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="93">
+      <c r="A19" s="74">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="95">
+      <c r="D19" s="76">
         <v>1.5200000000000001E-3</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="104">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="H19" s="97" t="s">
+      <c r="H19" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="97">
+      <c r="I19" s="78">
         <v>1.0399999999999999E-3</v>
       </c>
-      <c r="J19" s="98" t="str" cm="1">
+      <c r="J19" s="79" t="str" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">INDIRECT(ADDRESS(K19+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="K19" s="99">
+      <c r="K19" s="80">
         <v>2</v>
       </c>
-      <c r="L19" s="100">
+      <c r="L19" s="97">
         <v>141.88290000000001</v>
       </c>
-      <c r="M19" s="100">
+      <c r="M19" s="97">
         <v>787.99739999999997</v>
       </c>
-      <c r="N19" s="100">
+      <c r="N19" s="81">
         <v>10700000</v>
       </c>
-      <c r="O19" s="100">
+      <c r="O19" s="81">
         <v>7270000</v>
       </c>
-      <c r="P19" s="100">
+      <c r="P19" s="81">
         <v>86800000</v>
       </c>
-      <c r="Q19" s="101" cm="1">
+      <c r="Q19" s="102" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDIRECT(ADDRESS(K19+2,23))/(MAX(N19,O19,P19)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>8.1962558902041405E-2</v>
       </c>
-      <c r="R19" s="101" cm="1">
+      <c r="R19" s="102" cm="1">
         <f t="array" aca="1" ref="R19" ca="1">INDIRECT(ADDRESS(K19+2,24))/(MAX(N19,O19,P19)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.5602188622716229E-2</v>
       </c>
-      <c r="S19" s="102">
+      <c r="S19" s="103">
         <v>13.33296</v>
       </c>
     </row>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBF0B76-D288-4214-B8A5-ADF724BCE179}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA5BBEC-E1CF-4B6F-BC23-671F0290C0E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -266,6 +266,84 @@
   </si>
   <si>
     <t>.030    .002    .021    .030</t>
+  </si>
+  <si>
+    <t>1x1_comp</t>
+  </si>
+  <si>
+    <t>.001     .001</t>
+  </si>
+  <si>
+    <t>.001     .002</t>
+  </si>
+  <si>
+    <t>I6_comp</t>
+  </si>
+  <si>
+    <t>.030    .002    .021    .026</t>
+  </si>
+  <si>
+    <t>I7_comp</t>
+  </si>
+  <si>
+    <t>Comp_91</t>
+  </si>
+  <si>
+    <t>I8_comp</t>
+  </si>
+  <si>
+    <t>I9_comp</t>
+  </si>
+  <si>
+    <t>.030    .002    .021    .025</t>
+  </si>
+  <si>
+    <t>.030    .001    .021    .025</t>
+  </si>
+  <si>
+    <t>I10_comp</t>
+  </si>
+  <si>
+    <t>.030    .001    .021    .026</t>
+  </si>
+  <si>
+    <t>I11_comp</t>
+  </si>
+  <si>
+    <t>I12_comp</t>
+  </si>
+  <si>
+    <t>.030    .0019  .021    .025</t>
+  </si>
+  <si>
+    <t>.030    .0018  .021    .025</t>
+  </si>
+  <si>
+    <t>I13_comp</t>
+  </si>
+  <si>
+    <t>I14_comp</t>
+  </si>
+  <si>
+    <t>.032    .0016  .021    .024</t>
+  </si>
+  <si>
+    <t>.033    .0015  .021    .024</t>
+  </si>
+  <si>
+    <t>I15_comp</t>
+  </si>
+  <si>
+    <t>Ya está puesto comp91</t>
+  </si>
+  <si>
+    <t>Hay que cambiar los offsets</t>
+  </si>
+  <si>
+    <t>Ánimo</t>
+  </si>
+  <si>
+    <t>Mirar si las tablas están bien</t>
   </si>
 </sst>
 </file>
@@ -375,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -768,35 +846,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1015,32 +1069,51 @@
     <xf numFmtId="11" fontId="0" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1081,39 +1154,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA72D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1B3E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB17ED8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1188,6 +1268,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9C5BCD"/>
       <color rgb="FFB17ED8"/>
       <color rgb="FF9E5ECE"/>
       <color rgb="FFD1B3E7"/>
@@ -1197,7 +1278,6 @@
       <color rgb="FF893BC3"/>
       <color rgb="FF873AC0"/>
       <color rgb="FFC7A1D3"/>
-      <color rgb="FF83E4E9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1476,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="B1" colorId="23" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A9" colorId="23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,40 +1587,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93" t="s">
+      <c r="C1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="88" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="86" t="s">
+      <c r="I1" s="96"/>
+      <c r="J1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="83" t="s">
+      <c r="K1" s="94"/>
+      <c r="L1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
     </row>
     <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="85"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
@@ -1639,7 +1719,7 @@
       <c r="E3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="85" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="3">
@@ -1729,7 +1809,7 @@
       <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="86" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="9">
@@ -1789,7 +1869,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A19" si="0">A4+1</f>
+        <f t="shared" ref="A5:A24" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1804,7 +1884,7 @@
       <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="86" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="9">
@@ -1887,7 +1967,7 @@
       <c r="E6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="87" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="32">
@@ -1950,7 +2030,7 @@
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="88" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="3">
@@ -2014,7 +2094,7 @@
       <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="86" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="9">
@@ -2077,7 +2157,7 @@
       <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="86" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="9">
@@ -2140,7 +2220,7 @@
       <c r="E10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="87" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="32">
@@ -2203,7 +2283,7 @@
       <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="88" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="3">
@@ -2266,7 +2346,7 @@
       <c r="E12" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="87" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="32">
@@ -2329,7 +2409,7 @@
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="88" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="3">
@@ -2392,7 +2472,7 @@
       <c r="E14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="87" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="32">
@@ -2455,7 +2535,7 @@
       <c r="E15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="86" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="9">
@@ -2497,7 +2577,7 @@
         <f t="array" aca="1" ref="R15" ca="1">INDIRECT(ADDRESS(K15+2,24))/(MAX(N15,O15,P15)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>9.519602622010952</v>
       </c>
-      <c r="S15" s="98">
+      <c r="S15" s="76">
         <v>14.678739999999999</v>
       </c>
     </row>
@@ -2518,7 +2598,7 @@
       <c r="E16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="86" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="9">
@@ -2581,7 +2661,7 @@
       <c r="E17" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="89" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="69">
@@ -2600,10 +2680,10 @@
       <c r="K17" s="72">
         <v>2</v>
       </c>
-      <c r="L17" s="96">
+      <c r="L17" s="75">
         <v>143.9923</v>
       </c>
-      <c r="M17" s="96">
+      <c r="M17" s="75">
         <v>805.81730000000005</v>
       </c>
       <c r="N17" s="73">
@@ -2615,20 +2695,20 @@
       <c r="P17" s="73">
         <v>46500000</v>
       </c>
-      <c r="Q17" s="99" cm="1">
+      <c r="Q17" s="77" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDIRECT(ADDRESS(K17+2,23))/(MAX(N17,O17,P17)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>1.0196634432838105</v>
       </c>
-      <c r="R17" s="99" cm="1">
+      <c r="R17" s="77" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">INDIRECT(ADDRESS(K17+2,24))/(MAX(N17,O17,P17)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.89579075209573711</v>
       </c>
-      <c r="S17" s="100">
+      <c r="S17" s="78">
         <v>13.57723</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82">
+    <row r="18" spans="1:19" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="74">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2644,7 +2724,7 @@
       <c r="E18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="86" t="s">
         <v>69</v>
       </c>
       <c r="G18" s="9">
@@ -2686,117 +2766,589 @@
         <f t="array" aca="1" ref="R18" ca="1">INDIRECT(ADDRESS(K18+2,24))/(MAX(N18,O18,P18)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.64160651717787309</v>
       </c>
-      <c r="S18" s="101">
+      <c r="S18" s="79">
         <v>17.217079999999999</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="74">
+      <c r="A19" s="29">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="30">
         <v>1.5200000000000001E-3</v>
       </c>
-      <c r="E19" s="77" t="s">
+      <c r="E19" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="104">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="H19" s="78" t="s">
+      <c r="G19" s="32">
+        <v>1.252E-2</v>
+      </c>
+      <c r="H19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="78">
+      <c r="I19" s="33">
         <v>1.0399999999999999E-3</v>
       </c>
-      <c r="J19" s="79" t="str" cm="1">
+      <c r="J19" s="35" t="str" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">INDIRECT(ADDRESS(K19+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="K19" s="80">
+      <c r="K19" s="40">
         <v>2</v>
       </c>
-      <c r="L19" s="97">
+      <c r="L19" s="49">
         <v>141.88290000000001</v>
       </c>
-      <c r="M19" s="97">
+      <c r="M19" s="49">
         <v>787.99739999999997</v>
       </c>
-      <c r="N19" s="81">
+      <c r="N19" s="45">
         <v>10700000</v>
       </c>
-      <c r="O19" s="81">
+      <c r="O19" s="45">
         <v>7270000</v>
       </c>
-      <c r="P19" s="81">
+      <c r="P19" s="45">
         <v>86800000</v>
       </c>
-      <c r="Q19" s="102" cm="1">
+      <c r="Q19" s="46" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDIRECT(ADDRESS(K19+2,23))/(MAX(N19,O19,P19)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>8.1962558902041405E-2</v>
       </c>
-      <c r="R19" s="102" cm="1">
+      <c r="R19" s="46" cm="1">
         <f t="array" aca="1" ref="R19" ca="1">INDIRECT(ADDRESS(K19+2,24))/(MAX(N19,O19,P19)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.5602188622716229E-2</v>
       </c>
-      <c r="S19" s="103">
+      <c r="S19" s="52">
         <v>13.33296</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="K20" s="23"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="48"/>
+      <c r="A20" s="81">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.3520000000000001E-2</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="J20" s="20" t="str" cm="1">
+        <f t="array" aca="1" ref="J20" ca="1">INDIRECT(ADDRESS(K20+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K20" s="39">
+        <v>2</v>
+      </c>
+      <c r="L20" s="18">
+        <v>162.56610000000001</v>
+      </c>
+      <c r="M20" s="18">
+        <v>818.37549999999999</v>
+      </c>
+      <c r="N20" s="18">
+        <v>7880000</v>
+      </c>
+      <c r="O20" s="18">
+        <v>7620000</v>
+      </c>
+      <c r="P20" s="18">
+        <v>33000000</v>
+      </c>
+      <c r="Q20" s="42" cm="1">
+        <f t="array" aca="1" ref="Q20" ca="1">INDIRECT(ADDRESS(K20+2,23))/(MAX(N20,O20,P20)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>1.8458893973544606</v>
+      </c>
+      <c r="R20" s="42" cm="1">
+        <f t="array" aca="1" ref="R20" ca="1">INDIRECT(ADDRESS(K20+2,24))/(MAX(N20,O20,P20)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>1.6713415143167207</v>
+      </c>
+      <c r="S20" s="82">
+        <v>14.56298</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="K21" s="23"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="48"/>
+      <c r="A21" s="74">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.3455E-2</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J21" s="20" t="str" cm="1">
+        <f t="array" aca="1" ref="J21" ca="1">INDIRECT(ADDRESS(K21+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K21" s="39">
+        <v>2</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="83" t="e" cm="1">
+        <f t="array" aca="1" ref="Q21" ca="1">INDIRECT(ADDRESS(K21+2,23))/(MAX(N21,O21,P21)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" s="83" t="e" cm="1">
+        <f t="array" aca="1" ref="R21" ca="1">INDIRECT(ADDRESS(K21+2,24))/(MAX(N21,O21,P21)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" s="18"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="48"/>
+      <c r="A22" s="74">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1.2455000000000001E-2</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J22" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J22" ca="1">INDIRECT(ADDRESS(K22+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K22" s="11">
+        <v>2</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="21" t="e" cm="1">
+        <f t="array" aca="1" ref="Q22" ca="1">INDIRECT(ADDRESS(K22+2,23))/(MAX(N22,O22,P22)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="21" t="e" cm="1">
+        <f t="array" aca="1" ref="R22" ca="1">INDIRECT(ADDRESS(K22+2,24))/(MAX(N22,O22,P22)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" s="43"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="48"/>
+      <c r="A23" s="74">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.2955E-2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J23" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J23" ca="1">INDIRECT(ADDRESS(K23+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K23" s="11">
+        <v>2</v>
+      </c>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="21" t="e" cm="1">
+        <f t="array" aca="1" ref="Q23" ca="1">INDIRECT(ADDRESS(K23+2,23))/(MAX(N23,O23,P23)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="21" t="e" cm="1">
+        <f t="array" aca="1" ref="R23" ca="1">INDIRECT(ADDRESS(K23+2,24))/(MAX(N23,O23,P23)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" s="43"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
+      <c r="A24" s="74">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.2955E-2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J24" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J24" ca="1">INDIRECT(ADDRESS(K24+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K24" s="11">
+        <v>2</v>
+      </c>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="21" t="e" cm="1">
+        <f t="array" aca="1" ref="Q24" ca="1">INDIRECT(ADDRESS(K24+2,23))/(MAX(N24,O24,P24)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="22" t="e" cm="1">
+        <f t="array" aca="1" ref="R24" ca="1">INDIRECT(ADDRESS(K24+2,24))/(MAX(N24,O24,P24)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="84"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
+      <c r="A25" s="74">
+        <f>A24+1</f>
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1.3455E-2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J25" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J25" ca="1">INDIRECT(ADDRESS(K25+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K25" s="11">
+        <v>2</v>
+      </c>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="21" t="e" cm="1">
+        <f t="array" aca="1" ref="Q25" ca="1">INDIRECT(ADDRESS(K25+2,23))/(MAX(N25,O25,P25)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="22" t="e" cm="1">
+        <f t="array" aca="1" ref="R25" ca="1">INDIRECT(ADDRESS(K25+2,24))/(MAX(N25,O25,P25)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="84"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
+      <c r="A26" s="74">
+        <f>A25+1</f>
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.2955E-2</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J26" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J26" ca="1">INDIRECT(ADDRESS(K26+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2</v>
+      </c>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="21" t="e" cm="1">
+        <f t="array" aca="1" ref="Q26" ca="1">INDIRECT(ADDRESS(K26+2,23))/(MAX(N26,O26,P26)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="22" t="e" cm="1">
+        <f t="array" aca="1" ref="R26" ca="1">INDIRECT(ADDRESS(K26+2,24))/(MAX(N26,O26,P26)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="84"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
+      <c r="A27" s="74">
+        <f>A26+1</f>
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.2955E-2</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J27" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J27" ca="1">INDIRECT(ADDRESS(K27+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K27" s="11">
+        <v>2</v>
+      </c>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="21" t="e" cm="1">
+        <f t="array" aca="1" ref="Q27" ca="1">INDIRECT(ADDRESS(K27+2,23))/(MAX(N27,O27,P27)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="22" t="e" cm="1">
+        <f t="array" aca="1" ref="R27" ca="1">INDIRECT(ADDRESS(K27+2,24))/(MAX(N27,O27,P27)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="84"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
+      <c r="A28" s="74">
+        <f>A27+1</f>
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1.2455000000000001E-2</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J28" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J28" ca="1">INDIRECT(ADDRESS(K28+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K28" s="11">
+        <v>2</v>
+      </c>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="21" t="e" cm="1">
+        <f t="array" aca="1" ref="Q28" ca="1">INDIRECT(ADDRESS(K28+2,23))/(MAX(N28,O28,P28)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" s="22" t="e" cm="1">
+        <f t="array" aca="1" ref="R28" ca="1">INDIRECT(ADDRESS(K28+2,24))/(MAX(N28,O28,P28)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="84"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
+      <c r="A29" s="74">
+        <f>A28+1</f>
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1.2455000000000001E-2</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J29" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J29" ca="1">INDIRECT(ADDRESS(K29+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K29" s="11">
+        <v>2</v>
+      </c>
+      <c r="S29" s="84"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
@@ -2837,23 +3389,34 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L3:L18 L20:L1048576">
+  <conditionalFormatting sqref="L3:L18 L21:L1048576">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+      <formula>150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S18 S21:S1048576">
+    <cfRule type="top10" dxfId="13" priority="11" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="12" priority="12" percent="1" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="11" priority="13" rank="4"/>
+    <cfRule type="top10" dxfId="10" priority="14" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S18 S20:S1048576">
+  <conditionalFormatting sqref="S19">
     <cfRule type="top10" dxfId="8" priority="6" bottom="1" rank="4"/>
     <cfRule type="top10" dxfId="7" priority="7" percent="1" bottom="1" rank="4"/>
     <cfRule type="top10" dxfId="6" priority="8" rank="4"/>
     <cfRule type="top10" dxfId="5" priority="9" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
+  <conditionalFormatting sqref="L20">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S19">
+  <conditionalFormatting sqref="S20">
     <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="4"/>
     <cfRule type="top10" dxfId="2" priority="2" percent="1" bottom="1" rank="4"/>
     <cfRule type="top10" dxfId="1" priority="3" rank="4"/>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA5BBEC-E1CF-4B6F-BC23-671F0290C0E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A6510A-8998-4BEC-B028-1E288C238758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4512" yWindow="3228" windowWidth="11784" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -1267,6 +1267,72 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF9C5BCD"/>
       <color rgb="FFB17ED8"/>
@@ -1556,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A9" colorId="23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="D9" colorId="23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3359,25 +3425,55 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J34" s="20" t="str" cm="1">
+        <f t="array" aca="1" ref="J34" ca="1">INDIRECT(ADDRESS(K34+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K34" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
     </row>
   </sheetData>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A6510A-8998-4BEC-B028-1E288C238758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A3A893-B8E2-403F-A71E-5BE130EF029F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4512" yWindow="3228" windowWidth="11784" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -334,16 +334,76 @@
     <t>I15_comp</t>
   </si>
   <si>
-    <t>Ya está puesto comp91</t>
-  </si>
-  <si>
-    <t>Hay que cambiar los offsets</t>
-  </si>
-  <si>
-    <t>Ánimo</t>
-  </si>
-  <si>
-    <t>Mirar si las tablas están bien</t>
+    <t>I16_comp</t>
+  </si>
+  <si>
+    <t>.060    .001    .023    .025</t>
+  </si>
+  <si>
+    <t>I17_comp</t>
+  </si>
+  <si>
+    <t>.01      .001    .025    .029</t>
+  </si>
+  <si>
+    <t>I18_comp</t>
+  </si>
+  <si>
+    <t>.01      .001    .0245  .029</t>
+  </si>
+  <si>
+    <t>.01      .001    .026    .031</t>
+  </si>
+  <si>
+    <t>I19_comp</t>
+  </si>
+  <si>
+    <t>.01      .001    .028    .033</t>
+  </si>
+  <si>
+    <t>I20_comp</t>
+  </si>
+  <si>
+    <t>I21_comp</t>
+  </si>
+  <si>
+    <t>.011    .0009  .030    .035</t>
+  </si>
+  <si>
+    <t>I22_comp</t>
+  </si>
+  <si>
+    <t>.008    .0008  .037    .042</t>
+  </si>
+  <si>
+    <t>I23_comp</t>
+  </si>
+  <si>
+    <t>.007    .0008  .040    .045</t>
+  </si>
+  <si>
+    <t>I24_comp</t>
+  </si>
+  <si>
+    <t>.007    .0008  .0405  .045</t>
+  </si>
+  <si>
+    <t>.0065  .0008  .0405  .045</t>
+  </si>
+  <si>
+    <t>I25_comp</t>
+  </si>
+  <si>
+    <t>I26_comp</t>
+  </si>
+  <si>
+    <t>.0060  .0008  .0405  .045</t>
+  </si>
+  <si>
+    <t>I27_comp</t>
+  </si>
+  <si>
+    <t>.0055  .0008  .0405  .045</t>
   </si>
 </sst>
 </file>
@@ -1267,72 +1327,6 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF9C5BCD"/>
       <color rgb="FFB17ED8"/>
@@ -1620,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="D9" colorId="23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="F19" colorId="23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2998,20 +2992,32 @@
       <c r="K21" s="39">
         <v>2</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="83" t="e" cm="1">
+      <c r="L21" s="18">
+        <v>161.84139999999999</v>
+      </c>
+      <c r="M21" s="18">
+        <v>815.18520000000001</v>
+      </c>
+      <c r="N21" s="18">
+        <v>8010000</v>
+      </c>
+      <c r="O21" s="18">
+        <v>7750000</v>
+      </c>
+      <c r="P21" s="18">
+        <v>33900000</v>
+      </c>
+      <c r="Q21" s="83" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDIRECT(ADDRESS(K21+2,23))/(MAX(N21,O21,P21)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="83" t="e" cm="1">
+        <v>1.7703348115839881</v>
+      </c>
+      <c r="R21" s="83" cm="1">
         <f t="array" aca="1" ref="R21" ca="1">INDIRECT(ADDRESS(K21+2,24))/(MAX(N21,O21,P21)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="18"/>
+        <v>1.6004209431401706</v>
+      </c>
+      <c r="S21" s="18">
+        <v>14.48343</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="74">
@@ -3049,20 +3055,32 @@
       <c r="K22" s="11">
         <v>2</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="21" t="e" cm="1">
+      <c r="L22" s="43">
+        <v>139.0222</v>
+      </c>
+      <c r="M22" s="43">
+        <v>782.95159999999998</v>
+      </c>
+      <c r="N22" s="43">
+        <v>10800000</v>
+      </c>
+      <c r="O22" s="43">
+        <v>10600000</v>
+      </c>
+      <c r="P22" s="43">
+        <v>49800000</v>
+      </c>
+      <c r="Q22" s="21" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDIRECT(ADDRESS(K22+2,23))/(MAX(N22,O22,P22)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="21" t="e" cm="1">
+        <v>0.88583032354813618</v>
+      </c>
+      <c r="R22" s="21" cm="1">
         <f t="array" aca="1" ref="R22" ca="1">INDIRECT(ADDRESS(K22+2,24))/(MAX(N22,O22,P22)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="43"/>
+        <v>0.77016606370385099</v>
+      </c>
+      <c r="S22" s="43">
+        <v>13.24066</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="74">
@@ -3100,22 +3118,32 @@
       <c r="K23" s="11">
         <v>2</v>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="21" t="e" cm="1">
+      <c r="L23" s="43">
+        <v>151.31309999999999</v>
+      </c>
+      <c r="M23" s="43">
+        <v>803.09820000000002</v>
+      </c>
+      <c r="N23" s="43">
+        <v>9150000</v>
+      </c>
+      <c r="O23" s="43">
+        <v>8900000</v>
+      </c>
+      <c r="P23" s="43">
+        <v>40200000</v>
+      </c>
+      <c r="Q23" s="21" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDIRECT(ADDRESS(K23+2,23))/(MAX(N23,O23,P23)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" s="21" t="e" cm="1">
+        <v>1.3361778634999304</v>
+      </c>
+      <c r="R23" s="21" cm="1">
         <f t="array" aca="1" ref="R23" ca="1">INDIRECT(ADDRESS(K23+2,24))/(MAX(N23,O23,P23)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="43"/>
+        <v>1.1928922878719348</v>
+      </c>
+      <c r="S23" s="43">
+        <v>13.86205</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="74">
@@ -3153,22 +3181,32 @@
       <c r="K24" s="11">
         <v>2</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="21" t="e" cm="1">
+      <c r="L24" s="43">
+        <v>126.6069</v>
+      </c>
+      <c r="M24" s="43">
+        <v>742.78200000000004</v>
+      </c>
+      <c r="N24" s="43">
+        <v>10200000</v>
+      </c>
+      <c r="O24" s="43">
+        <v>9900000</v>
+      </c>
+      <c r="P24" s="43">
+        <v>40900000</v>
+      </c>
+      <c r="Q24" s="21" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDIRECT(ADDRESS(K24+2,23))/(MAX(N24,O24,P24)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="22" t="e" cm="1">
+        <v>1.2961943792835502</v>
+      </c>
+      <c r="R24" s="22" cm="1">
         <f t="array" aca="1" ref="R24" ca="1">INDIRECT(ADDRESS(K24+2,24))/(MAX(N24,O24,P24)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="84"/>
+        <v>1.1553611240208257</v>
+      </c>
+      <c r="S24" s="84">
+        <v>13.37659</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="74">
@@ -3206,22 +3244,32 @@
       <c r="K25" s="11">
         <v>2</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="21" t="e" cm="1">
+      <c r="L25" s="43">
+        <v>134.1542</v>
+      </c>
+      <c r="M25" s="43">
+        <v>739.21569999999997</v>
+      </c>
+      <c r="N25" s="43">
+        <v>8830000</v>
+      </c>
+      <c r="O25" s="43">
+        <v>8520000</v>
+      </c>
+      <c r="P25" s="43">
+        <v>34300000</v>
+      </c>
+      <c r="Q25" s="21" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDIRECT(ADDRESS(K25+2,23))/(MAX(N25,O25,P25)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="22" t="e" cm="1">
+        <v>1.7380277000786353</v>
+      </c>
+      <c r="R25" s="22" cm="1">
         <f t="array" aca="1" ref="R25" ca="1">INDIRECT(ADDRESS(K25+2,24))/(MAX(N25,O25,P25)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="84"/>
+        <v>1.5700953344738129</v>
+      </c>
+      <c r="S25" s="84">
+        <v>13.97856</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="74">
@@ -3259,22 +3307,32 @@
       <c r="K26" s="11">
         <v>2</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="21" t="e" cm="1">
+      <c r="L26" s="43">
+        <v>147.46780000000001</v>
+      </c>
+      <c r="M26" s="43">
+        <v>795.86620000000005</v>
+      </c>
+      <c r="N26" s="43">
+        <v>9330000</v>
+      </c>
+      <c r="O26" s="43">
+        <v>9080000</v>
+      </c>
+      <c r="P26" s="43">
+        <v>40400000</v>
+      </c>
+      <c r="Q26" s="21" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">INDIRECT(ADDRESS(K26+2,23))/(MAX(N26,O26,P26)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="22" t="e" cm="1">
+        <v>1.3246126265519109</v>
+      </c>
+      <c r="R26" s="22" cm="1">
         <f t="array" aca="1" ref="R26" ca="1">INDIRECT(ADDRESS(K26+2,24))/(MAX(N26,O26,P26)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="84"/>
+        <v>1.1820363854567271</v>
+      </c>
+      <c r="S26" s="84">
+        <v>13.76496</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="74">
@@ -3312,20 +3370,32 @@
       <c r="K27" s="11">
         <v>2</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="21" t="e" cm="1">
+      <c r="L27" s="43">
+        <v>149.43559999999999</v>
+      </c>
+      <c r="M27" s="43">
+        <v>799.65239999999994</v>
+      </c>
+      <c r="N27" s="43">
+        <v>9240000</v>
+      </c>
+      <c r="O27" s="43">
+        <v>8990000</v>
+      </c>
+      <c r="P27" s="43">
+        <v>40300000</v>
+      </c>
+      <c r="Q27" s="21" cm="1">
         <f t="array" aca="1" ref="Q27" ca="1">INDIRECT(ADDRESS(K27+2,23))/(MAX(N27,O27,P27)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="22" t="e" cm="1">
+        <v>1.3303808960967047</v>
+      </c>
+      <c r="R27" s="22" cm="1">
         <f t="array" aca="1" ref="R27" ca="1">INDIRECT(ADDRESS(K27+2,24))/(MAX(N27,O27,P27)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="84"/>
+        <v>1.1874508678027733</v>
+      </c>
+      <c r="S27" s="84">
+        <v>13.813499999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="74">
@@ -3363,20 +3433,32 @@
       <c r="K28" s="11">
         <v>2</v>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="21" t="e" cm="1">
+      <c r="L28" s="43">
+        <v>132.9813</v>
+      </c>
+      <c r="M28" s="43">
+        <v>771.09990000000005</v>
+      </c>
+      <c r="N28" s="43">
+        <v>10900000</v>
+      </c>
+      <c r="O28" s="43">
+        <v>10600000</v>
+      </c>
+      <c r="P28" s="43">
+        <v>45100000</v>
+      </c>
+      <c r="Q28" s="21" cm="1">
         <f t="array" aca="1" ref="Q28" ca="1">INDIRECT(ADDRESS(K28+2,23))/(MAX(N28,O28,P28)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="22" t="e" cm="1">
+        <v>1.082358095625215</v>
+      </c>
+      <c r="R28" s="22" cm="1">
         <f t="array" aca="1" ref="R28" ca="1">INDIRECT(ADDRESS(K28+2,24))/(MAX(N28,O28,P28)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="84"/>
+        <v>0.95464013242686852</v>
+      </c>
+      <c r="S28" s="84">
+        <v>13.17076</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="74">
@@ -3414,21 +3496,290 @@
       <c r="K29" s="11">
         <v>2</v>
       </c>
-      <c r="S29" s="84"/>
+      <c r="L29" s="43">
+        <v>131.4419</v>
+      </c>
+      <c r="M29" s="43">
+        <v>766.68520000000001</v>
+      </c>
+      <c r="N29" s="43">
+        <v>10800000</v>
+      </c>
+      <c r="O29" s="43">
+        <v>10600000</v>
+      </c>
+      <c r="P29" s="43">
+        <v>47200000</v>
+      </c>
+      <c r="Q29" s="21" cm="1">
+        <f t="array" aca="1" ref="Q29" ca="1">INDIRECT(ADDRESS(K29+2,23))/(MAX(N29,O29,P29)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>0.98971080747239792</v>
+      </c>
+      <c r="R29" s="22" cm="1">
+        <f t="array" aca="1" ref="R29" ca="1">INDIRECT(ADDRESS(K29+2,24))/(MAX(N29,O29,P29)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.86767521128075797</v>
+      </c>
+      <c r="S29" s="84">
+        <v>13.182410000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
+      <c r="A30" s="74">
+        <f>A29+1</f>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1.2955E-2</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J30" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J30" ca="1">INDIRECT(ADDRESS(K30+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K30" s="11">
+        <v>2</v>
+      </c>
+      <c r="L30" s="43">
+        <v>119.8836</v>
+      </c>
+      <c r="M30" s="43">
+        <v>717.33270000000005</v>
+      </c>
+      <c r="N30" s="43">
+        <v>9950000</v>
+      </c>
+      <c r="O30" s="43">
+        <v>9780000</v>
+      </c>
+      <c r="P30" s="43">
+        <v>38700000</v>
+      </c>
+      <c r="Q30" s="21" cm="1">
+        <f t="array" aca="1" ref="Q30" ca="1">INDIRECT(ADDRESS(K30+2,23))/(MAX(N30,O30,P30)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>1.4267273930929507</v>
+      </c>
+      <c r="R30" s="22" cm="1">
+        <f t="array" aca="1" ref="R30" ca="1">INDIRECT(ADDRESS(K30+2,24))/(MAX(N30,O30,P30)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>1.2778881129832498</v>
+      </c>
+      <c r="S30" s="84">
+        <v>13.37659</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
+      <c r="A31" s="74">
+        <f>A30+1</f>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.4955E-2</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J31" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J31" ca="1">INDIRECT(ADDRESS(K31+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K31" s="11">
+        <v>2</v>
+      </c>
+      <c r="L31" s="43">
+        <v>121.24299999999999</v>
+      </c>
+      <c r="M31" s="43">
+        <v>740.49220000000003</v>
+      </c>
+      <c r="N31" s="43">
+        <v>18900000</v>
+      </c>
+      <c r="O31" s="43">
+        <v>18100000</v>
+      </c>
+      <c r="P31" s="43">
+        <v>69400000</v>
+      </c>
+      <c r="Q31" s="21" cm="1">
+        <f t="array" aca="1" ref="Q31" ca="1">INDIRECT(ADDRESS(K31+2,23))/(MAX(N31,O31,P31)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>0.35323271055759653</v>
+      </c>
+      <c r="R31" s="22" cm="1">
+        <f t="array" aca="1" ref="R31" ca="1">INDIRECT(ADDRESS(K31+2,24))/(MAX(N31,O31,P31)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.27023443764339738</v>
+      </c>
+      <c r="S31" s="84">
+        <v>11.9008</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
+      <c r="A32" s="74">
+        <f t="shared" ref="A32:A41" si="1">A31+1</f>
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1.4955E-2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J32" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J32" ca="1">INDIRECT(ADDRESS(K32+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K32" s="11">
+        <v>2</v>
+      </c>
+      <c r="L32" s="43">
+        <v>123.3674</v>
+      </c>
+      <c r="M32" s="43">
+        <v>749.61800000000005</v>
+      </c>
+      <c r="N32" s="43">
+        <v>17900000</v>
+      </c>
+      <c r="O32" s="43">
+        <v>17200000</v>
+      </c>
+      <c r="P32" s="43">
+        <v>65700000</v>
+      </c>
+      <c r="Q32" s="21" cm="1">
+        <f t="array" aca="1" ref="Q32" ca="1">INDIRECT(ADDRESS(K32+2,23))/(MAX(N32,O32,P32)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>0.4294421630547518</v>
+      </c>
+      <c r="R32" s="22" cm="1">
+        <f t="array" aca="1" ref="R32" ca="1">INDIRECT(ADDRESS(K32+2,24))/(MAX(N32,O32,P32)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.34176971038739401</v>
+      </c>
+      <c r="S32" s="84">
+        <v>11.9979</v>
+      </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="74">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.5955E-2</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J33" s="23" t="str" cm="1">
+        <f t="array" aca="1" ref="J33" ca="1">INDIRECT(ADDRESS(K33+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K33" s="11">
+        <v>2</v>
+      </c>
+      <c r="L33" s="43">
+        <v>132.3115</v>
+      </c>
+      <c r="M33" s="43">
+        <v>770.77909999999997</v>
+      </c>
+      <c r="N33" s="43">
+        <v>16800000</v>
+      </c>
+      <c r="O33" s="43">
+        <v>16100000</v>
+      </c>
+      <c r="P33" s="43">
+        <v>57500000</v>
+      </c>
+      <c r="Q33" s="21" cm="1">
+        <f t="array" aca="1" ref="Q33" ca="1">INDIRECT(ADDRESS(K33+2,23))/(MAX(N33,O33,P33)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>0.63329304543821263</v>
+      </c>
+      <c r="R33" s="22" cm="1">
+        <f t="array" aca="1" ref="R33" ca="1">INDIRECT(ADDRESS(K33+2,24))/(MAX(N33,O33,P33)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.53311773865133549</v>
+      </c>
+      <c r="S33" s="84">
+        <v>12.13382</v>
+      </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="74">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3439,13 +3790,13 @@
         <v>9.5500000000000001E-4</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="9">
-        <v>1.3299999999999999E-2</v>
+        <v>101</v>
+      </c>
+      <c r="F34" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1.6955000000000001E-2</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>76</v>
@@ -3460,21 +3811,473 @@
       <c r="K34" s="39">
         <v>2</v>
       </c>
+      <c r="L34" s="43">
+        <v>139.16829999999999</v>
+      </c>
+      <c r="M34" s="43">
+        <v>782.17420000000004</v>
+      </c>
+      <c r="N34" s="43">
+        <v>16600000</v>
+      </c>
+      <c r="O34" s="43">
+        <v>15800000</v>
+      </c>
+      <c r="P34" s="43">
+        <v>53200000</v>
+      </c>
+      <c r="Q34" s="21" cm="1">
+        <f t="array" aca="1" ref="Q34" ca="1">INDIRECT(ADDRESS(K34+2,23))/(MAX(N34,O34,P34)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>0.76530733294543651</v>
+      </c>
+      <c r="R34" s="22" cm="1">
+        <f t="array" aca="1" ref="R34" ca="1">INDIRECT(ADDRESS(K34+2,24))/(MAX(N34,O34,P34)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.6570351498581164</v>
+      </c>
+      <c r="S34" s="84">
+        <v>12.17266</v>
+      </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="74">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.7954999999999999E-2</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J35" s="20" t="str" cm="1">
+        <f t="array" aca="1" ref="J35" ca="1">INDIRECT(ADDRESS(K35+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K35" s="39">
+        <v>2</v>
+      </c>
+      <c r="L35" s="43">
+        <v>143.09630000000001</v>
+      </c>
+      <c r="M35" s="43">
+        <v>795.80020000000002</v>
+      </c>
+      <c r="N35" s="43">
+        <v>16000000</v>
+      </c>
+      <c r="O35" s="43">
+        <v>15300000</v>
+      </c>
+      <c r="P35" s="43">
+        <v>47000000</v>
+      </c>
+      <c r="Q35" s="21" cm="1">
+        <f t="array" aca="1" ref="Q35" ca="1">INDIRECT(ADDRESS(K35+2,23))/(MAX(N35,O35,P35)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>0.99817766197228042</v>
+      </c>
+      <c r="R35" s="22" cm="1">
+        <f t="array" aca="1" ref="R35" ca="1">INDIRECT(ADDRESS(K35+2,24))/(MAX(N35,O35,P35)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.87562276537131445</v>
+      </c>
+      <c r="S35" s="84">
+        <v>12.24062</v>
+      </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="74">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2.1454999999999998E-2</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J36" s="20" t="str" cm="1">
+        <f t="array" aca="1" ref="J36" ca="1">INDIRECT(ADDRESS(K36+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K36" s="39">
+        <v>2</v>
+      </c>
+      <c r="L36" s="43">
+        <v>152.0932</v>
+      </c>
+      <c r="M36" s="43">
+        <v>775.52440000000001</v>
+      </c>
+      <c r="N36" s="43">
+        <v>18500000</v>
+      </c>
+      <c r="O36" s="43">
+        <v>17400000</v>
+      </c>
+      <c r="P36" s="43">
+        <v>45400000</v>
+      </c>
+      <c r="Q36" s="21" cm="1">
+        <f t="array" aca="1" ref="Q36" ca="1">INDIRECT(ADDRESS(K36+2,23))/(MAX(N36,O36,P36)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>1.0685980201034626</v>
+      </c>
+      <c r="R36" s="22" cm="1">
+        <f t="array" aca="1" ref="R36" ca="1">INDIRECT(ADDRESS(K36+2,24))/(MAX(N36,O36,P36)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.94172400820378366</v>
+      </c>
+      <c r="S36" s="84">
+        <v>11.990130000000001</v>
+      </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="74">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2.2655000000000002E-2</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J37" s="20" t="str" cm="1">
+        <f t="array" aca="1" ref="J37" ca="1">INDIRECT(ADDRESS(K37+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K37" s="39">
+        <v>2</v>
+      </c>
+      <c r="L37" s="43">
+        <v>157.42330000000001</v>
+      </c>
+      <c r="M37" s="43">
+        <v>771.28420000000006</v>
+      </c>
+      <c r="N37" s="43">
+        <v>19200000</v>
+      </c>
+      <c r="O37" s="43">
+        <v>18000000</v>
+      </c>
+      <c r="P37" s="43">
+        <v>45200000</v>
+      </c>
+      <c r="Q37" s="21" cm="1">
+        <f t="array" aca="1" ref="Q37" ca="1">INDIRECT(ADDRESS(K37+2,23))/(MAX(N37,O37,P37)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>1.0777511086879912</v>
+      </c>
+      <c r="R37" s="22" cm="1">
+        <f t="array" aca="1" ref="R37" ca="1">INDIRECT(ADDRESS(K37+2,24))/(MAX(N37,O37,P37)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.95031570735512783</v>
+      </c>
+      <c r="S37" s="84">
+        <v>11.939640000000001</v>
+      </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="74">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2.2655000000000002E-2</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J38" s="20" t="str" cm="1">
+        <f t="array" aca="1" ref="J38" ca="1">INDIRECT(ADDRESS(K38+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K38" s="39">
+        <v>2</v>
+      </c>
+      <c r="L38" s="43">
+        <v>155.74299999999999</v>
+      </c>
+      <c r="M38" s="43">
+        <v>761.43579999999997</v>
+      </c>
+      <c r="N38" s="43">
+        <v>20000000</v>
+      </c>
+      <c r="O38" s="43">
+        <v>18800000</v>
+      </c>
+      <c r="P38" s="43">
+        <v>47400000</v>
+      </c>
+      <c r="Q38" s="21" cm="1">
+        <f t="array" aca="1" ref="Q38" ca="1">INDIRECT(ADDRESS(K38+2,23))/(MAX(N38,O38,P38)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>0.98131540322145949</v>
+      </c>
+      <c r="R38" s="22" cm="1">
+        <f t="array" aca="1" ref="R38" ca="1">INDIRECT(ADDRESS(K38+2,24))/(MAX(N38,O38,P38)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.85979472515721045</v>
+      </c>
+      <c r="S38" s="84">
+        <v>11.87168</v>
+      </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="8"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="74">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2.2655000000000002E-2</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J39" s="20" t="str" cm="1">
+        <f t="array" aca="1" ref="J39" ca="1">INDIRECT(ADDRESS(K39+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K39" s="39">
+        <v>2</v>
+      </c>
+      <c r="L39" s="43">
+        <v>154.4623</v>
+      </c>
+      <c r="M39" s="43">
+        <v>754.29610000000002</v>
+      </c>
+      <c r="N39" s="43">
+        <v>20600000</v>
+      </c>
+      <c r="O39" s="43">
+        <v>19300000</v>
+      </c>
+      <c r="P39" s="43">
+        <v>49100000</v>
+      </c>
+      <c r="Q39" s="21" cm="1">
+        <f t="array" aca="1" ref="Q39" ca="1">INDIRECT(ADDRESS(K39+2,23))/(MAX(N39,O39,P39)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>0.91271588824230521</v>
+      </c>
+      <c r="R39" s="22" cm="1">
+        <f t="array" aca="1" ref="R39" ca="1">INDIRECT(ADDRESS(K39+2,24))/(MAX(N39,O39,P39)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.79540264709677744</v>
+      </c>
+      <c r="S39" s="84">
+        <v>11.82799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="74">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2.2655000000000002E-2</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J40" s="20" t="str" cm="1">
+        <f t="array" aca="1" ref="J40" ca="1">INDIRECT(ADDRESS(K40+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K40" s="39">
+        <v>2</v>
+      </c>
+      <c r="L40" s="43">
+        <v>153.0994</v>
+      </c>
+      <c r="M40" s="43">
+        <v>746.97760000000005</v>
+      </c>
+      <c r="N40" s="43">
+        <v>21300000</v>
+      </c>
+      <c r="O40" s="43">
+        <v>19900000</v>
+      </c>
+      <c r="P40" s="43">
+        <v>51000000</v>
+      </c>
+      <c r="Q40" s="21" cm="1">
+        <f t="array" aca="1" ref="Q40" ca="1">INDIRECT(ADDRESS(K40+2,23))/(MAX(N40,O40,P40)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>0.8414578453470043</v>
+      </c>
+      <c r="R40" s="22" cm="1">
+        <f t="array" aca="1" ref="R40" ca="1">INDIRECT(ADDRESS(K40+2,24))/(MAX(N40,O40,P40)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.72851509749905463</v>
+      </c>
+      <c r="S40" s="84">
+        <v>11.78429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="74">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2">
+        <v>9.5500000000000001E-4</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2.2655000000000002E-2</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J41" s="20" t="str" cm="1">
+        <f t="array" aca="1" ref="J41" ca="1">INDIRECT(ADDRESS(K41+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K41" s="39">
+        <v>2</v>
+      </c>
+      <c r="L41" s="43">
+        <v>151.6438</v>
+      </c>
+      <c r="M41" s="43">
+        <v>739.46709999999996</v>
+      </c>
+      <c r="N41" s="43">
+        <v>23300000</v>
+      </c>
+      <c r="O41" s="43">
+        <v>21800000</v>
+      </c>
+      <c r="P41" s="43">
+        <v>59000000</v>
+      </c>
+      <c r="Q41" s="21" cm="1">
+        <f t="array" aca="1" ref="Q41" ca="1">INDIRECT(ADDRESS(K41+2,23))/(MAX(N41,O41,P41)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>0.59176864597791878</v>
+      </c>
+      <c r="R41" s="22" cm="1">
+        <f t="array" aca="1" ref="R41" ca="1">INDIRECT(ADDRESS(K41+2,24))/(MAX(N41,O41,P41)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.49414016902460656</v>
+      </c>
+      <c r="S41" s="84">
+        <v>11.740600000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A3A893-B8E2-403F-A71E-5BE130EF029F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FD5796-5EAB-4361-8ED0-92DF1E2986B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1151,13 +1151,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1213,6 +1207,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,6 +1330,72 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF9C5BCD"/>
       <color rgb="FFB17ED8"/>
@@ -1614,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="F19" colorId="23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="G16" colorId="23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,40 +1716,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="95" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="96"/>
-      <c r="J1" s="93" t="s">
+      <c r="I1" s="94"/>
+      <c r="J1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="90" t="s">
+      <c r="K1" s="92"/>
+      <c r="L1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
     </row>
     <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="92"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
@@ -1779,7 +1848,7 @@
       <c r="E3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="83" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="3">
@@ -1869,7 +1938,7 @@
       <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="84" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="9">
@@ -1944,7 +2013,7 @@
       <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="84" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="9">
@@ -2027,7 +2096,7 @@
       <c r="E6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="85" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="32">
@@ -2090,7 +2159,7 @@
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="86" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="3">
@@ -2154,7 +2223,7 @@
       <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="84" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="9">
@@ -2217,7 +2286,7 @@
       <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="84" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="9">
@@ -2249,15 +2318,15 @@
         <v>7870000</v>
       </c>
       <c r="P9" s="43">
-        <v>3840000</v>
+        <v>38400000</v>
       </c>
       <c r="Q9" s="44" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDIRECT(ADDRESS(K9+2,23))/(MAX(N9,O9,P9)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>39.016025503334767</v>
+        <v>7.2012010601886622</v>
       </c>
       <c r="R9" s="44" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDIRECT(ADDRESS(K9+2,24))/(MAX(N9,O9,P9)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>39.044665203496209</v>
+        <v>7.2070707070707059</v>
       </c>
       <c r="S9" s="54">
         <v>17.30743</v>
@@ -2280,7 +2349,7 @@
       <c r="E10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="85" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="32">
@@ -2343,7 +2412,7 @@
       <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="86" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="3">
@@ -2406,7 +2475,7 @@
       <c r="E12" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="85" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="32">
@@ -2469,7 +2538,7 @@
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="86" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="3">
@@ -2532,7 +2601,7 @@
       <c r="E14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="85" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="32">
@@ -2595,7 +2664,7 @@
       <c r="E15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="84" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="9">
@@ -2658,7 +2727,7 @@
       <c r="E16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="86" t="s">
+      <c r="F16" s="84" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="9">
@@ -2721,7 +2790,7 @@
       <c r="E17" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="89" t="s">
+      <c r="F17" s="87" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="69">
@@ -2784,7 +2853,7 @@
       <c r="E18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="86" t="s">
+      <c r="F18" s="84" t="s">
         <v>69</v>
       </c>
       <c r="G18" s="9">
@@ -2847,7 +2916,7 @@
       <c r="E19" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="85" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="32">
@@ -2910,7 +2979,7 @@
       <c r="E20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="88" t="s">
+      <c r="F20" s="86" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="3">
@@ -2929,10 +2998,10 @@
       <c r="K20" s="39">
         <v>2</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="50">
         <v>162.56610000000001</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="50">
         <v>818.37549999999999</v>
       </c>
       <c r="N20" s="18">
@@ -2952,7 +3021,7 @@
         <f t="array" aca="1" ref="R20" ca="1">INDIRECT(ADDRESS(K20+2,24))/(MAX(N20,O20,P20)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.6713415143167207</v>
       </c>
-      <c r="S20" s="82">
+      <c r="S20" s="102">
         <v>14.56298</v>
       </c>
     </row>
@@ -2973,7 +3042,7 @@
       <c r="E21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="88" t="s">
+      <c r="F21" s="86" t="s">
         <v>74</v>
       </c>
       <c r="G21" s="3">
@@ -2992,10 +3061,10 @@
       <c r="K21" s="39">
         <v>2</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="50">
         <v>161.84139999999999</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="50">
         <v>815.18520000000001</v>
       </c>
       <c r="N21" s="18">
@@ -3007,15 +3076,15 @@
       <c r="P21" s="18">
         <v>33900000</v>
       </c>
-      <c r="Q21" s="83" cm="1">
+      <c r="Q21" s="82" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDIRECT(ADDRESS(K21+2,23))/(MAX(N21,O21,P21)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
         <v>1.7703348115839881</v>
       </c>
-      <c r="R21" s="83" cm="1">
+      <c r="R21" s="82" cm="1">
         <f t="array" aca="1" ref="R21" ca="1">INDIRECT(ADDRESS(K21+2,24))/(MAX(N21,O21,P21)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.6004209431401706</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="50">
         <v>14.48343</v>
       </c>
     </row>
@@ -3036,7 +3105,7 @@
       <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="86" t="s">
+      <c r="F22" s="84" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="9">
@@ -3055,10 +3124,10 @@
       <c r="K22" s="11">
         <v>2</v>
       </c>
-      <c r="L22" s="43">
+      <c r="L22" s="48">
         <v>139.0222</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="48">
         <v>782.95159999999998</v>
       </c>
       <c r="N22" s="43">
@@ -3078,7 +3147,7 @@
         <f t="array" aca="1" ref="R22" ca="1">INDIRECT(ADDRESS(K22+2,24))/(MAX(N22,O22,P22)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.77016606370385099</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="48">
         <v>13.24066</v>
       </c>
     </row>
@@ -3099,7 +3168,7 @@
       <c r="E23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="86" t="s">
+      <c r="F23" s="84" t="s">
         <v>79</v>
       </c>
       <c r="G23" s="3">
@@ -3118,10 +3187,10 @@
       <c r="K23" s="11">
         <v>2</v>
       </c>
-      <c r="L23" s="43">
+      <c r="L23" s="48">
         <v>151.31309999999999</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="48">
         <v>803.09820000000002</v>
       </c>
       <c r="N23" s="43">
@@ -3141,7 +3210,7 @@
         <f t="array" aca="1" ref="R23" ca="1">INDIRECT(ADDRESS(K23+2,24))/(MAX(N23,O23,P23)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.1928922878719348</v>
       </c>
-      <c r="S23" s="43">
+      <c r="S23" s="48">
         <v>13.86205</v>
       </c>
     </row>
@@ -3162,7 +3231,7 @@
       <c r="E24" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="86" t="s">
+      <c r="F24" s="84" t="s">
         <v>80</v>
       </c>
       <c r="G24" s="3">
@@ -3181,10 +3250,10 @@
       <c r="K24" s="11">
         <v>2</v>
       </c>
-      <c r="L24" s="43">
+      <c r="L24" s="48">
         <v>126.6069</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="48">
         <v>742.78200000000004</v>
       </c>
       <c r="N24" s="43">
@@ -3204,13 +3273,13 @@
         <f t="array" aca="1" ref="R24" ca="1">INDIRECT(ADDRESS(K24+2,24))/(MAX(N24,O24,P24)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.1553611240208257</v>
       </c>
-      <c r="S24" s="84">
+      <c r="S24" s="103">
         <v>13.37659</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="74">
-        <f>A24+1</f>
+        <f t="shared" ref="A25:A31" si="1">A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3225,7 +3294,7 @@
       <c r="E25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="88" t="s">
+      <c r="F25" s="86" t="s">
         <v>82</v>
       </c>
       <c r="G25" s="3">
@@ -3244,10 +3313,10 @@
       <c r="K25" s="11">
         <v>2</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="48">
         <v>134.1542</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="48">
         <v>739.21569999999997</v>
       </c>
       <c r="N25" s="43">
@@ -3267,13 +3336,13 @@
         <f t="array" aca="1" ref="R25" ca="1">INDIRECT(ADDRESS(K25+2,24))/(MAX(N25,O25,P25)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.5700953344738129</v>
       </c>
-      <c r="S25" s="84">
+      <c r="S25" s="103">
         <v>13.97856</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="74">
-        <f>A25+1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3288,7 +3357,7 @@
       <c r="E26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="86" t="s">
+      <c r="F26" s="84" t="s">
         <v>86</v>
       </c>
       <c r="G26" s="3">
@@ -3307,10 +3376,10 @@
       <c r="K26" s="11">
         <v>2</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="48">
         <v>147.46780000000001</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="48">
         <v>795.86620000000005</v>
       </c>
       <c r="N26" s="43">
@@ -3330,13 +3399,13 @@
         <f t="array" aca="1" ref="R26" ca="1">INDIRECT(ADDRESS(K26+2,24))/(MAX(N26,O26,P26)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.1820363854567271</v>
       </c>
-      <c r="S26" s="84">
+      <c r="S26" s="103">
         <v>13.76496</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="74">
-        <f>A26+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3351,7 +3420,7 @@
       <c r="E27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="86" t="s">
+      <c r="F27" s="84" t="s">
         <v>85</v>
       </c>
       <c r="G27" s="3">
@@ -3370,10 +3439,10 @@
       <c r="K27" s="11">
         <v>2</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="48">
         <v>149.43559999999999</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="48">
         <v>799.65239999999994</v>
       </c>
       <c r="N27" s="43">
@@ -3393,13 +3462,13 @@
         <f t="array" aca="1" ref="R27" ca="1">INDIRECT(ADDRESS(K27+2,24))/(MAX(N27,O27,P27)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.1874508678027733</v>
       </c>
-      <c r="S27" s="84">
+      <c r="S27" s="103">
         <v>13.813499999999999</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="74">
-        <f>A27+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3414,7 +3483,7 @@
       <c r="E28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="86" t="s">
+      <c r="F28" s="84" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="9">
@@ -3433,10 +3502,10 @@
       <c r="K28" s="11">
         <v>2</v>
       </c>
-      <c r="L28" s="43">
+      <c r="L28" s="48">
         <v>132.9813</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="48">
         <v>771.09990000000005</v>
       </c>
       <c r="N28" s="43">
@@ -3456,13 +3525,13 @@
         <f t="array" aca="1" ref="R28" ca="1">INDIRECT(ADDRESS(K28+2,24))/(MAX(N28,O28,P28)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.95464013242686852</v>
       </c>
-      <c r="S28" s="84">
+      <c r="S28" s="103">
         <v>13.17076</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="74">
-        <f>A28+1</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3477,7 +3546,7 @@
       <c r="E29" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="86" t="s">
+      <c r="F29" s="84" t="s">
         <v>90</v>
       </c>
       <c r="G29" s="9">
@@ -3496,10 +3565,10 @@
       <c r="K29" s="11">
         <v>2</v>
       </c>
-      <c r="L29" s="43">
+      <c r="L29" s="48">
         <v>131.4419</v>
       </c>
-      <c r="M29" s="43">
+      <c r="M29" s="48">
         <v>766.68520000000001</v>
       </c>
       <c r="N29" s="43">
@@ -3519,13 +3588,13 @@
         <f t="array" aca="1" ref="R29" ca="1">INDIRECT(ADDRESS(K29+2,24))/(MAX(N29,O29,P29)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.86767521128075797</v>
       </c>
-      <c r="S29" s="84">
+      <c r="S29" s="103">
         <v>13.182410000000001</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="74">
-        <f>A29+1</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3540,7 +3609,7 @@
       <c r="E30" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="86" t="s">
+      <c r="F30" s="84" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="3">
@@ -3559,10 +3628,10 @@
       <c r="K30" s="11">
         <v>2</v>
       </c>
-      <c r="L30" s="43">
+      <c r="L30" s="48">
         <v>119.8836</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="48">
         <v>717.33270000000005</v>
       </c>
       <c r="N30" s="43">
@@ -3582,13 +3651,13 @@
         <f t="array" aca="1" ref="R30" ca="1">INDIRECT(ADDRESS(K30+2,24))/(MAX(N30,O30,P30)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.2778881129832498</v>
       </c>
-      <c r="S30" s="84">
+      <c r="S30" s="103">
         <v>13.37659</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="74">
-        <f>A30+1</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3603,7 +3672,7 @@
       <c r="E31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="88" t="s">
+      <c r="F31" s="86" t="s">
         <v>95</v>
       </c>
       <c r="G31" s="3">
@@ -3622,10 +3691,10 @@
       <c r="K31" s="11">
         <v>2</v>
       </c>
-      <c r="L31" s="43">
+      <c r="L31" s="48">
         <v>121.24299999999999</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="48">
         <v>740.49220000000003</v>
       </c>
       <c r="N31" s="43">
@@ -3645,13 +3714,13 @@
         <f t="array" aca="1" ref="R31" ca="1">INDIRECT(ADDRESS(K31+2,24))/(MAX(N31,O31,P31)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.27023443764339738</v>
       </c>
-      <c r="S31" s="84">
+      <c r="S31" s="103">
         <v>11.9008</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="74">
-        <f t="shared" ref="A32:A41" si="1">A31+1</f>
+        <f t="shared" ref="A32:A41" si="2">A31+1</f>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3666,7 +3735,7 @@
       <c r="E32" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="88" t="s">
+      <c r="F32" s="86" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="3">
@@ -3685,10 +3754,10 @@
       <c r="K32" s="11">
         <v>2</v>
       </c>
-      <c r="L32" s="43">
+      <c r="L32" s="48">
         <v>123.3674</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="48">
         <v>749.61800000000005</v>
       </c>
       <c r="N32" s="43">
@@ -3708,13 +3777,13 @@
         <f t="array" aca="1" ref="R32" ca="1">INDIRECT(ADDRESS(K32+2,24))/(MAX(N32,O32,P32)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.34176971038739401</v>
       </c>
-      <c r="S32" s="84">
+      <c r="S32" s="103">
         <v>11.9979</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3729,7 +3798,7 @@
       <c r="E33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="88" t="s">
+      <c r="F33" s="86" t="s">
         <v>98</v>
       </c>
       <c r="G33" s="3">
@@ -3748,10 +3817,10 @@
       <c r="K33" s="11">
         <v>2</v>
       </c>
-      <c r="L33" s="43">
+      <c r="L33" s="48">
         <v>132.3115</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="48">
         <v>770.77909999999997</v>
       </c>
       <c r="N33" s="43">
@@ -3771,13 +3840,13 @@
         <f t="array" aca="1" ref="R33" ca="1">INDIRECT(ADDRESS(K33+2,24))/(MAX(N33,O33,P33)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.53311773865133549</v>
       </c>
-      <c r="S33" s="84">
+      <c r="S33" s="103">
         <v>12.13382</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3792,7 +3861,7 @@
       <c r="E34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="88" t="s">
+      <c r="F34" s="86" t="s">
         <v>100</v>
       </c>
       <c r="G34" s="3">
@@ -3811,10 +3880,10 @@
       <c r="K34" s="39">
         <v>2</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="48">
         <v>139.16829999999999</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="48">
         <v>782.17420000000004</v>
       </c>
       <c r="N34" s="43">
@@ -3834,13 +3903,13 @@
         <f t="array" aca="1" ref="R34" ca="1">INDIRECT(ADDRESS(K34+2,24))/(MAX(N34,O34,P34)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.6570351498581164</v>
       </c>
-      <c r="S34" s="84">
+      <c r="S34" s="103">
         <v>12.17266</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3855,7 +3924,7 @@
       <c r="E35" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="88" t="s">
+      <c r="F35" s="86" t="s">
         <v>103</v>
       </c>
       <c r="G35" s="3">
@@ -3874,10 +3943,10 @@
       <c r="K35" s="39">
         <v>2</v>
       </c>
-      <c r="L35" s="43">
+      <c r="L35" s="48">
         <v>143.09630000000001</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="48">
         <v>795.80020000000002</v>
       </c>
       <c r="N35" s="43">
@@ -3897,13 +3966,13 @@
         <f t="array" aca="1" ref="R35" ca="1">INDIRECT(ADDRESS(K35+2,24))/(MAX(N35,O35,P35)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.87562276537131445</v>
       </c>
-      <c r="S35" s="84">
+      <c r="S35" s="103">
         <v>12.24062</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3918,7 +3987,7 @@
       <c r="E36" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="88" t="s">
+      <c r="F36" s="86" t="s">
         <v>105</v>
       </c>
       <c r="G36" s="3">
@@ -3937,10 +4006,10 @@
       <c r="K36" s="39">
         <v>2</v>
       </c>
-      <c r="L36" s="43">
+      <c r="L36" s="48">
         <v>152.0932</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="48">
         <v>775.52440000000001</v>
       </c>
       <c r="N36" s="43">
@@ -3960,13 +4029,13 @@
         <f t="array" aca="1" ref="R36" ca="1">INDIRECT(ADDRESS(K36+2,24))/(MAX(N36,O36,P36)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.94172400820378366</v>
       </c>
-      <c r="S36" s="84">
+      <c r="S36" s="103">
         <v>11.990130000000001</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3981,7 +4050,7 @@
       <c r="E37" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="88" t="s">
+      <c r="F37" s="86" t="s">
         <v>107</v>
       </c>
       <c r="G37" s="3">
@@ -4000,10 +4069,10 @@
       <c r="K37" s="39">
         <v>2</v>
       </c>
-      <c r="L37" s="43">
+      <c r="L37" s="48">
         <v>157.42330000000001</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="48">
         <v>771.28420000000006</v>
       </c>
       <c r="N37" s="43">
@@ -4023,13 +4092,13 @@
         <f t="array" aca="1" ref="R37" ca="1">INDIRECT(ADDRESS(K37+2,24))/(MAX(N37,O37,P37)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.95031570735512783</v>
       </c>
-      <c r="S37" s="84">
+      <c r="S37" s="103">
         <v>11.939640000000001</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4044,7 +4113,7 @@
       <c r="E38" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="88" t="s">
+      <c r="F38" s="86" t="s">
         <v>109</v>
       </c>
       <c r="G38" s="3">
@@ -4063,10 +4132,10 @@
       <c r="K38" s="39">
         <v>2</v>
       </c>
-      <c r="L38" s="43">
+      <c r="L38" s="48">
         <v>155.74299999999999</v>
       </c>
-      <c r="M38" s="43">
+      <c r="M38" s="48">
         <v>761.43579999999997</v>
       </c>
       <c r="N38" s="43">
@@ -4086,13 +4155,13 @@
         <f t="array" aca="1" ref="R38" ca="1">INDIRECT(ADDRESS(K38+2,24))/(MAX(N38,O38,P38)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.85979472515721045</v>
       </c>
-      <c r="S38" s="84">
+      <c r="S38" s="103">
         <v>11.87168</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -4107,7 +4176,7 @@
       <c r="E39" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="88" t="s">
+      <c r="F39" s="86" t="s">
         <v>110</v>
       </c>
       <c r="G39" s="3">
@@ -4126,10 +4195,10 @@
       <c r="K39" s="39">
         <v>2</v>
       </c>
-      <c r="L39" s="43">
+      <c r="L39" s="48">
         <v>154.4623</v>
       </c>
-      <c r="M39" s="43">
+      <c r="M39" s="48">
         <v>754.29610000000002</v>
       </c>
       <c r="N39" s="43">
@@ -4149,13 +4218,13 @@
         <f t="array" aca="1" ref="R39" ca="1">INDIRECT(ADDRESS(K39+2,24))/(MAX(N39,O39,P39)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.79540264709677744</v>
       </c>
-      <c r="S39" s="84">
+      <c r="S39" s="103">
         <v>11.82799</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4170,7 +4239,7 @@
       <c r="E40" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="88" t="s">
+      <c r="F40" s="86" t="s">
         <v>113</v>
       </c>
       <c r="G40" s="3">
@@ -4189,10 +4258,10 @@
       <c r="K40" s="39">
         <v>2</v>
       </c>
-      <c r="L40" s="43">
+      <c r="L40" s="48">
         <v>153.0994</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="48">
         <v>746.97760000000005</v>
       </c>
       <c r="N40" s="43">
@@ -4212,13 +4281,13 @@
         <f t="array" aca="1" ref="R40" ca="1">INDIRECT(ADDRESS(K40+2,24))/(MAX(N40,O40,P40)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.72851509749905463</v>
       </c>
-      <c r="S40" s="84">
+      <c r="S40" s="103">
         <v>11.78429</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -4233,11 +4302,11 @@
       <c r="E41" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="88" t="s">
+      <c r="F41" s="86" t="s">
         <v>115</v>
       </c>
       <c r="G41" s="3">
-        <v>2.2655000000000002E-2</v>
+        <v>2.2955E-2</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>76</v>
@@ -4252,31 +4321,36 @@
       <c r="K41" s="39">
         <v>2</v>
       </c>
-      <c r="L41" s="43">
-        <v>151.6438</v>
-      </c>
-      <c r="M41" s="43">
-        <v>739.46709999999996</v>
+      <c r="L41" s="48">
+        <v>152.08109999999999</v>
+      </c>
+      <c r="M41" s="48">
+        <v>737.20090000000005</v>
       </c>
       <c r="N41" s="43">
-        <v>23300000</v>
+        <v>23400000</v>
       </c>
       <c r="O41" s="43">
-        <v>21800000</v>
+        <v>21900000</v>
       </c>
       <c r="P41" s="43">
-        <v>59000000</v>
+        <v>58200000</v>
       </c>
       <c r="Q41" s="21" cm="1">
         <f t="array" aca="1" ref="Q41" ca="1">INDIRECT(ADDRESS(K41+2,23))/(MAX(N41,O41,P41)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
-        <v>0.59176864597791878</v>
+        <v>0.6136486273659314</v>
       </c>
       <c r="R41" s="22" cm="1">
         <f t="array" aca="1" ref="R41" ca="1">INDIRECT(ADDRESS(K41+2,24))/(MAX(N41,O41,P41)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
-        <v>0.49414016902460656</v>
-      </c>
-      <c r="S41" s="84">
+        <v>0.51467817822082118</v>
+      </c>
+      <c r="S41" s="103">
         <v>11.740600000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C45" s="101">
+        <v>9.5500000000000001E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Bandeja_B/Bandeja_B.xlsx
+++ b/Bandeja_B/Bandeja_B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Bandeja_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FD5796-5EAB-4361-8ED0-92DF1E2986B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE83657-6816-4243-88DC-ADCB00A9B611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="119">
   <si>
     <t xml:space="preserve">Número de iteración </t>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t>.0055  .0008  .0405  .045</t>
+  </si>
+  <si>
+    <t>.001     .045</t>
+  </si>
+  <si>
+    <t>1x2_comp</t>
+  </si>
+  <si>
+    <t>1x45_comp</t>
   </si>
 </sst>
 </file>
@@ -1169,6 +1178,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,21 +1225,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA72D4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1B3E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9E5ECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB17ED8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1289,34 +1326,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF9E5ECE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAA72D4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD1B3E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9E5ECE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB17ED8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1428,7 +1437,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C8C8C8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1685,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="G16" colorId="23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A25" colorId="23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,40 +1725,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="93" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="91" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="92"/>
-      <c r="L1" s="88" t="s">
+      <c r="K1" s="95"/>
+      <c r="L1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
     </row>
     <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
+      <c r="A2" s="93"/>
       <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
@@ -2968,7 +2977,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>72</v>
@@ -3021,7 +3030,7 @@
         <f t="array" aca="1" ref="R20" ca="1">INDIRECT(ADDRESS(K20+2,24))/(MAX(N20,O20,P20)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.6713415143167207</v>
       </c>
-      <c r="S20" s="102">
+      <c r="S20" s="89">
         <v>14.56298</v>
       </c>
     </row>
@@ -3273,7 +3282,7 @@
         <f t="array" aca="1" ref="R24" ca="1">INDIRECT(ADDRESS(K24+2,24))/(MAX(N24,O24,P24)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.1553611240208257</v>
       </c>
-      <c r="S24" s="103">
+      <c r="S24" s="90">
         <v>13.37659</v>
       </c>
     </row>
@@ -3336,7 +3345,7 @@
         <f t="array" aca="1" ref="R25" ca="1">INDIRECT(ADDRESS(K25+2,24))/(MAX(N25,O25,P25)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.5700953344738129</v>
       </c>
-      <c r="S25" s="103">
+      <c r="S25" s="90">
         <v>13.97856</v>
       </c>
     </row>
@@ -3399,7 +3408,7 @@
         <f t="array" aca="1" ref="R26" ca="1">INDIRECT(ADDRESS(K26+2,24))/(MAX(N26,O26,P26)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.1820363854567271</v>
       </c>
-      <c r="S26" s="103">
+      <c r="S26" s="90">
         <v>13.76496</v>
       </c>
     </row>
@@ -3462,7 +3471,7 @@
         <f t="array" aca="1" ref="R27" ca="1">INDIRECT(ADDRESS(K27+2,24))/(MAX(N27,O27,P27)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.1874508678027733</v>
       </c>
-      <c r="S27" s="103">
+      <c r="S27" s="90">
         <v>13.813499999999999</v>
       </c>
     </row>
@@ -3525,7 +3534,7 @@
         <f t="array" aca="1" ref="R28" ca="1">INDIRECT(ADDRESS(K28+2,24))/(MAX(N28,O28,P28)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.95464013242686852</v>
       </c>
-      <c r="S28" s="103">
+      <c r="S28" s="90">
         <v>13.17076</v>
       </c>
     </row>
@@ -3588,7 +3597,7 @@
         <f t="array" aca="1" ref="R29" ca="1">INDIRECT(ADDRESS(K29+2,24))/(MAX(N29,O29,P29)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.86767521128075797</v>
       </c>
-      <c r="S29" s="103">
+      <c r="S29" s="90">
         <v>13.182410000000001</v>
       </c>
     </row>
@@ -3651,7 +3660,7 @@
         <f t="array" aca="1" ref="R30" ca="1">INDIRECT(ADDRESS(K30+2,24))/(MAX(N30,O30,P30)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>1.2778881129832498</v>
       </c>
-      <c r="S30" s="103">
+      <c r="S30" s="90">
         <v>13.37659</v>
       </c>
     </row>
@@ -3714,7 +3723,7 @@
         <f t="array" aca="1" ref="R31" ca="1">INDIRECT(ADDRESS(K31+2,24))/(MAX(N31,O31,P31)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.27023443764339738</v>
       </c>
-      <c r="S31" s="103">
+      <c r="S31" s="90">
         <v>11.9008</v>
       </c>
     </row>
@@ -3777,7 +3786,7 @@
         <f t="array" aca="1" ref="R32" ca="1">INDIRECT(ADDRESS(K32+2,24))/(MAX(N32,O32,P32)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.34176971038739401</v>
       </c>
-      <c r="S32" s="103">
+      <c r="S32" s="90">
         <v>11.9979</v>
       </c>
     </row>
@@ -3840,7 +3849,7 @@
         <f t="array" aca="1" ref="R33" ca="1">INDIRECT(ADDRESS(K33+2,24))/(MAX(N33,O33,P33)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.53311773865133549</v>
       </c>
-      <c r="S33" s="103">
+      <c r="S33" s="90">
         <v>12.13382</v>
       </c>
     </row>
@@ -3903,7 +3912,7 @@
         <f t="array" aca="1" ref="R34" ca="1">INDIRECT(ADDRESS(K34+2,24))/(MAX(N34,O34,P34)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.6570351498581164</v>
       </c>
-      <c r="S34" s="103">
+      <c r="S34" s="90">
         <v>12.17266</v>
       </c>
     </row>
@@ -3966,7 +3975,7 @@
         <f t="array" aca="1" ref="R35" ca="1">INDIRECT(ADDRESS(K35+2,24))/(MAX(N35,O35,P35)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.87562276537131445</v>
       </c>
-      <c r="S35" s="103">
+      <c r="S35" s="90">
         <v>12.24062</v>
       </c>
     </row>
@@ -4029,7 +4038,7 @@
         <f t="array" aca="1" ref="R36" ca="1">INDIRECT(ADDRESS(K36+2,24))/(MAX(N36,O36,P36)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.94172400820378366</v>
       </c>
-      <c r="S36" s="103">
+      <c r="S36" s="90">
         <v>11.990130000000001</v>
       </c>
     </row>
@@ -4092,7 +4101,7 @@
         <f t="array" aca="1" ref="R37" ca="1">INDIRECT(ADDRESS(K37+2,24))/(MAX(N37,O37,P37)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.95031570735512783</v>
       </c>
-      <c r="S37" s="103">
+      <c r="S37" s="90">
         <v>11.939640000000001</v>
       </c>
     </row>
@@ -4155,7 +4164,7 @@
         <f t="array" aca="1" ref="R38" ca="1">INDIRECT(ADDRESS(K38+2,24))/(MAX(N38,O38,P38)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.85979472515721045</v>
       </c>
-      <c r="S38" s="103">
+      <c r="S38" s="90">
         <v>11.87168</v>
       </c>
     </row>
@@ -4218,7 +4227,7 @@
         <f t="array" aca="1" ref="R39" ca="1">INDIRECT(ADDRESS(K39+2,24))/(MAX(N39,O39,P39)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.79540264709677744</v>
       </c>
-      <c r="S39" s="103">
+      <c r="S39" s="90">
         <v>11.82799</v>
       </c>
     </row>
@@ -4281,7 +4290,7 @@
         <f t="array" aca="1" ref="R40" ca="1">INDIRECT(ADDRESS(K40+2,24))/(MAX(N40,O40,P40)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.72851509749905463</v>
       </c>
-      <c r="S40" s="103">
+      <c r="S40" s="90">
         <v>11.78429</v>
       </c>
     </row>
@@ -4344,14 +4353,75 @@
         <f t="array" aca="1" ref="R41" ca="1">INDIRECT(ADDRESS(K41+2,24))/(MAX(N41,O41,P41)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
         <v>0.51467817822082118</v>
       </c>
-      <c r="S41" s="103">
+      <c r="S41" s="90">
         <v>11.740600000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J42" s="20"/>
+      <c r="K42" s="39"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2.2955E-2</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2.2955E-2</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="4">
+        <v>9.1E-4</v>
+      </c>
+      <c r="J43" s="20" t="str" cm="1">
+        <f t="array" aca="1" ref="J43" ca="1">INDIRECT(ADDRESS(K43+2,22))</f>
+        <v>CFRP</v>
+      </c>
+      <c r="K43" s="39">
+        <v>2</v>
+      </c>
+      <c r="L43" s="43">
+        <v>155.04839999999999</v>
+      </c>
+      <c r="M43" s="43">
+        <v>750.14570000000003</v>
+      </c>
+      <c r="N43" s="43">
+        <v>23100000</v>
+      </c>
+      <c r="O43" s="43">
+        <v>27000000</v>
+      </c>
+      <c r="P43" s="43">
+        <v>58000000</v>
+      </c>
+      <c r="Q43" s="21" cm="1">
+        <f t="array" aca="1" ref="Q43" ca="1">INDIRECT(ADDRESS(K43+2,23))/(MAX(N43,O43,P43)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,29))) -1</f>
+        <v>0.61921293297753799</v>
+      </c>
+      <c r="R43" s="22" cm="1">
+        <f t="array" aca="1" ref="R43" ca="1">INDIRECT(ADDRESS(K43+2,24))/(MAX(N43,O43,P43)*INDIRECT(ADDRESS(3,26))*INDIRECT(ADDRESS(3,27))*INDIRECT(ADDRESS(3,28))*INDIRECT(ADDRESS(3,30))) -1</f>
+        <v>0.51990120642158266</v>
+      </c>
+      <c r="S43" s="90">
+        <v>11.920109999999999</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C45" s="101">
-        <v>9.5500000000000001E-4</v>
-      </c>
+      <c r="C45" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4368,32 +4438,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S18 S21:S1048576">
-    <cfRule type="top10" dxfId="13" priority="11" bottom="1" rank="4"/>
-    <cfRule type="top10" dxfId="12" priority="12" percent="1" bottom="1" rank="4"/>
-    <cfRule type="top10" dxfId="11" priority="13" rank="4"/>
-    <cfRule type="top10" dxfId="10" priority="14" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="11" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="2" priority="12" percent="1" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="1" priority="13" rank="4"/>
+    <cfRule type="top10" dxfId="0" priority="14" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19">
-    <cfRule type="top10" dxfId="8" priority="6" bottom="1" rank="4"/>
-    <cfRule type="top10" dxfId="7" priority="7" percent="1" bottom="1" rank="4"/>
-    <cfRule type="top10" dxfId="6" priority="8" rank="4"/>
-    <cfRule type="top10" dxfId="5" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="6" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="11" priority="7" percent="1" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="10" priority="8" rank="4"/>
+    <cfRule type="top10" dxfId="9" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="4"/>
-    <cfRule type="top10" dxfId="2" priority="2" percent="1" bottom="1" rank="4"/>
-    <cfRule type="top10" dxfId="1" priority="3" rank="4"/>
-    <cfRule type="top10" dxfId="0" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="1" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="6" priority="2" percent="1" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="5" priority="3" rank="4"/>
+    <cfRule type="top10" dxfId="4" priority="4" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
